--- a/class4_tuidaoshi/interface_cases.xlsx
+++ b/class4_tuidaoshi/interface_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22110" windowHeight="7860" tabRatio="715" activeTab="1"/>
+    <workbookView windowWidth="22665" windowHeight="9540" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="768">
   <si>
     <t>id</t>
   </si>
@@ -2306,879 +2306,6 @@
   </si>
   <si>
     <t>{"env": 1,"cxfa":"个检套餐","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【套餐管理】1-正常-团检套餐-根据id查询套餐商品-成功</t>
-  </si>
-  <si>
-    <t>/admin/suite/v2/newGoodsPkg/14618</t>
-  </si>
-  <si>
-    <t>{'aliDetailImage': '', 'aliDiscount': 0.0, 'aliFeatureItem': '', 'aliLabels': '', 'aliListImage': None, 'aliPkgDesc': '', 'aliSalePrice': None, 'aliSettlementPrice': None, 'categoryLevelOne': 1, 'categoryLevelTwo': 34, 'examItemList': '[{"examFeeItemID":"HY0039","examFeeItemName":"血HCG","optionType":1,"price":3300,"salePrice":0.02,"salePriceStr":"0.02"},{"examFeeItemID":"HY0045","examFeeItemName":"总胆固醇","optionType":1,"price":600,"salePrice":0.30,"salePriceStr":"0.30"},{"examFeeItemID":"MR0001","examFeeItemName":"1.0腰椎核磁","optionType":1,"price":32300,"salePrice":0.01,"salePriceStr":"0.01"},{"examFeeItemID":"MR0010","examFeeItemName":"1.0右膝关节核磁","optionType":1,"price":32300,"salePrice":0.01,"salePriceStr":"0.01"},{"examFeeItemID":"WG0002","examFeeItemName":"耳鼻喉科检查","optionType":1,"price":800,"salePrice":0.01,"salePriceStr":"0.01"},{"examFeeItemID":"WJ002","examFeeItemName":"电子胃镜","optionType":1,"price":33600,"salePrice":2.00,"salePriceStr":"2"},{"examFeeItemID":"WK0001","examFeeItemName":"外科检查","optionType":1,"price":500,"salePrice":100.00,"salePriceStr":"100"}]', 'examSuiteId': None, 'frequent': 0, 'genderRequire': 0, 'groupSale': 0, 'hospitalSettlePrice': None, 'images': 'https://file.helianhealth.com/manager/pkg/img_default.jpg', 'itemDesc': '&lt;h6&gt;心胸肺及腰椎&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;耳鼻喉科检查&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;泌尿生殖&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;1.0腰椎核磁&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;肿瘤生化&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;总胆固醇&lt;/strong&gt; &lt;strong&gt;外科检查&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;胃部疾病检查&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;电子胃镜&lt;/strong&gt; &lt;strong&gt;1.0右膝关节核磁&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;女性检查&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;血HCG&lt;/strong&gt;&lt;/p&gt;', 'itemDescType': 0, 'marryRequire': 0, 'needCardNo': 1, 'notice': '{"notice3":"1、全部体检完毕后请把体检单交给前台。/b2、如需纸质报告请到院咨询工作人员。/b3、获取报告后，可在【禾健康】APP联系专家解读报告。","notice2":"1、请空腹携带身份证到达体检中心后，先到前台登记。/b2、勿服药（降压药，降糖药除外），空腹项目结束后，可吃早餐并按常规服药。/b3、勿饮水；勿携带贵重物品；勿穿连体类衣裤及长筒靴。/b4、体检当日清晨可提前留置尿、粪便标本，取尿液标本时需取中段尿。/b5、做上腹部B超检查前，应空腹并排空大便，做子宫、附件/前列腺、膀胱B超检查时则憋尿，使膀胱充盈后才能进行。/b6、已孕和备孕人群不宜做放射科检测。","notice1":"1、体检前三日请清淡饮食，请勿饮酒，勿劳累。/b2、体检前一晚8点后不再进食，适量喝水保障充足睡眠。/b3、女性月经周期结束3天后可做妇科、尿液检测，检前1天避免性生活，请合理预约时间。","notice4":"1、订单有效期：订单有效期1年内可预约，过期无效。/b2、预约改时：预约后，待订单状态为【已确认】后不可更改预约时间。/b3、退款：预约后，待订单状态为【已确认】后不可申请退款。"}', 'operatorName': None, 'optimisticLockId': '2598', 'optimisticLockVersion': 1605857862000, 'pkgBaseId': None, 'pkgDesc': '&lt;p&gt;&lt;img src="https://file.helianhealth.com/manager/pkg/desc_default.jpg"&gt;&lt;/p&gt;', 'pkgFrom': None, 'pkgId': 2598, 'pkgItemDiscount': 1.0, 'pkgName': '界面自动化团检套餐', 'pkgSyn': True, 'price': 112.33, 'recommendLabel': '', 'salePrice': 50.0, 'salesVolume': 185, 'skuId': 14661, 'spuId': 14618, 'stationId': 'HL99998', 'suitableLabel': '', 'supportAddition': 1, 'thumbnail': 'https://file.helianhealth.com/manager/pkg/img_default.jpg', 'valid': 365, 'wxSale': 0}</t>
-  </si>
-  <si>
-    <t>【套餐管理】2-时间戳一致-团检套餐-商品套餐编辑-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"团检套餐"}</t>
-  </si>
-  <si>
-    <t>{"aliDetailImage":'',"aliDiscount":'',"aliFeatureItem":'',"aliLabels":'',"aliListImage":'',"aliPkgDesc":'',"aliSalePrice":'',"aliSettlementPrice":'',"categoryLevelOne":1,"categoryLevelTwo":34,"examItemList":[{"examFeeItemID":"HY0039","examFeeItemName":"血HCG","optionType":1,"price":3300,"salePrice":10,"salePriceStr":"10","itemName":"血HCG","itemId":"HY0039"},{"examFeeItemID":"HY0045","examFeeItemName":"总胆固醇","optionType":1,"price":600,"salePrice":0.3,"salePriceStr":"0.30","itemName":"总胆固醇","itemId":"HY0045"},{"examFeeItemID":"MR0001","examFeeItemName":"1.0腰椎核磁","optionType":1,"price":32300,"salePrice":0.01,"salePriceStr":"0.01","itemName":"1.0腰椎核磁","itemId":"MR0001"},{"examFeeItemID":"MR0010","examFeeItemName":"1.0右膝关节核磁","optionType":1,"price":32300,"salePrice":0.01,"salePriceStr":"0.01","itemName":"1.0右膝关节核磁","itemId":"MR0010"},{"examFeeItemID":"WG0002","examFeeItemName":"耳鼻喉科检查","optionType":1,"price":800,"salePrice":0.01,"salePriceStr":"0.01","itemName":"耳鼻喉科检查","itemId":"WG0002"},{"examFeeItemID":"WJ002","examFeeItemName":"电子胃镜","optionType":1,"price":33600,"salePrice":2,"salePriceStr":"2","itemName":"电子胃镜","itemId":"WJ002"},{"examFeeItemID":"WK0001","examFeeItemName":"外科检查","optionType":1,"price":500,"salePrice":100,"salePriceStr":"100","itemName":"外科检查","itemId":"WK0001"}],"examSuiteId":'',"frequent":0,"genderRequire":0,"groupSale":0,"hospitalSettlePrice":'',"images":"https://file.helianhealth.com/manager/pkg/img_default.jpg","itemDesc":"&lt;h6&gt;心胸肺及腰椎&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;耳鼻喉科检查&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;泌尿生殖&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;1.0腰椎核磁&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;肿瘤生化&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;总胆固醇&lt;/strong&gt; &lt;strong&gt;外科检查&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;胃部疾病检查&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;电子胃镜&lt;/strong&gt; &lt;strong&gt;1.0右膝关节核磁&lt;/strong&gt;&lt;/p&gt;&lt;h6&gt;女性检查&lt;/h6&gt;&lt;p&gt;&lt;strong&gt;血HCG&lt;/strong&gt;&lt;/p&gt;","itemDescType":0,"marryRequire":0,"needCardNo":1,"notice":{"notice4":"1、订单有效期：订单有效期1年内可预约，过期无效。/b2、预约改时：预约后，待订单状态为【已确认】后不可更改预约时间。/b3、退款：预约后，待订单状态为【已确认】后不可申请退款。","notice3":"1、全部体检完毕后请把体检单交给前台。/b2、如需纸质报告请到院咨询工作人员。/b3、获取报告后，可在【禾健康】APP联系专家解读报告。","notice2":"1、请空腹携带身份证到达体检中心后，先到前台登记。/b2、勿服药（降压药，降糖药除外），空腹项目结束后，可吃早餐并按常规服药。/b3、勿饮水；勿携带贵重物品；勿穿连体类衣裤及长筒靴。/b4、体检当日清晨可提前留置尿、粪便标本，取尿液标本时需取中段尿。/b5、做上腹部B超检查前，应空腹并排空大便，做子宫、附件/前列腺、膀胱B超检查时则憋尿，使膀胱充盈后才能进行。/b6、已孕和备孕人群不宜做放射科检测。","notice1":"1、体检前三日请清淡饮食，请勿饮酒，勿劳累。/b2、体检前一晚8点后不再进食，适量喝水保障充足睡眠。/b3、女性月经周期结束3天后可做妇科、尿液检测，检前1天避免性生活，请合理预约时间。"},"operatorName":'',"optimisticLockId":"2598","optimisticLockVersion":1605518935000,"pkgBaseId":'',"pkgDesc":"&lt;p&gt;&lt;img src=\"https://file.helianhealth.com/manager/pkg/desc_default.jpg\"&gt;&lt;/p&gt;","pkgFrom":'',"pkgId":2598,"pkgItemDiscount":1,"pkgName":"界面自动化团检套餐","pkgSyn":'true',"price":"112.33","recommendLabel":'',"salePrice":50,"salesVolume":185,"skuId":14661,"spuId":14618,"stationId":"HL99998","suitableLabel":"","supportAddition":1,"thumbnail":"https://file.helianhealth.com/manager/pkg/img_default.jpg","valid":365,"wxSale":0}</t>
-  </si>
-  <si>
-    <t>【套餐管理】3-时间戳不一致-团检套餐-商品套餐编辑-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"团检套餐","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【套餐管理】4-时间戳不一致-团检套餐-商品套餐编辑-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"团检套餐","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【套餐管理】1-正常-项目包-自选项目包详情-成功</t>
-  </si>
-  <si>
-    <t>/admin/optional/pkg/get/186</t>
-  </si>
-  <si>
-    <t>{'examItemList': [{'examFeeItemID': 'HY0009', 'examFeeItemName': '同型半胱胺酸', 'price': 3300, 'salePrice': 1.0, 'salePriceStr': '1'}, {'examFeeItemID': 'HY0045', 'examFeeItemName': '总胆固醇', 'price': 600, 'salePrice': 0.3, 'salePriceStr': '0.30'}, {'examFeeItemID': 'HY0056', 'examFeeItemName': '碱性磷酸（ALP）', 'price': 500, 'salePrice': 1.0, 'salePriceStr': '1'}, {'examFeeItemID': 'NK0001', 'examFeeItemName': '内科检查(必检）', 'price': 800, 'salePrice': 2.0, 'salePriceStr': '2'}, {'examFeeItemID': 'WG0002', 'examFeeItemName': '耳鼻喉科检查', 'price': 800, 'salePrice': 0.01, 'salePriceStr': '0.01'}, {'examFeeItemID': 'WYM0001', 'examFeeItemName': 'C13呼气试验(空腹)', 'price': 19000, 'salePrice': 3.0, 'salePriceStr': '3'}, {'examFeeItemID': 'XZ0006', 'examFeeItemName': 'shyceshishy1', 'price': 2, 'salePrice': 0.01, 'salePriceStr': '0.01'}], 'gmtModified': 1605857866000, 'id': 186, 'optimisticLockId': '186', 'optimisticLockVersion': 1605857866000, 'optionalPkgDesc': '', 'optionalPkgName': '界面自动化项目包', 'price': 250.02, 'salePrice': 7.32, 'stationId': 'HL99998'}</t>
-  </si>
-  <si>
-    <t>【套餐管理】2-时间戳一致-项目包-自选项目包保存-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"项目包"}</t>
-  </si>
-  <si>
-    <t>/admin/optional/pkg/save</t>
-  </si>
-  <si>
-    <t>{"id":186,"stationId":"HL99998","itemIds":"HY0009,HY0045,HY0056,NK0001,WG0002,WYM0001,XZ0006","optionalPkgName":"界面自动化项目包","optionalPkgDesc":""}</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>【套餐管理】3-时间戳不一致-项目包-自选项目包保存-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"项目包","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【套餐管理】4-时间戳不一致-项目包-自选项目包保存-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"项目包","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【系统设置】1-正常-体检服务-获取机构信息-成功</t>
-  </si>
-  <si>
-    <t>/admin/admin/inst/detail</t>
-  </si>
-  <si>
-    <t>{'stationId':'HL99998'}</t>
-  </si>
-  <si>
-    <t>{'activatePerformanceStatistic': 1, 'addItemConf': '10', 'addressDetail': '浙江省杭州市西湖区杭州绿城育华小学1231231请问请问呃企鹅企鹅企鹅请问驱蚊器驱蚊器', 'agreement': None, 'aliNotice': None, 'aliStatus': 2, 'alias': '', 'areaCode': 330106, 'areaDetail': '杭州绿城育华小学1231231请问请问呃企鹅企鹅企鹅请问驱蚊器驱蚊器', 'artificialDecode': 1, 'attention': '', 'auditSync': 2, 'behalfPassword': '111111', 'businessLicense': None, 'cityCode': 330100, 'companySmsOpen': 0, 'contactName': '1', 'contactTel': '1', 'createTime': 1580960818000, 'crmId': 'M0000029', 'detail': '', 'dingTalkId': 'https://oapi.dingtalk.com/robot/send?access_token=cd793c7eea52c4b8721087c301285622aa6a68c46d6863765728f22dbffd2902', 'distance': None, 'drawBloodEndTime': '11:12', 'drawBloodStartTime': '07:50', 'enableGuidance': 0, 'enableInsurance': 1, 'enableSurveyQuestion': 1, 'familyPkgBuyType': 1, 'gmtOnlineFirst': None, 'groupSyncDay': 2, 'hdtsUrl': None, 'individualPurchase': 1, 'individualPurchasePriceLowest': 0, 'individualPurchaseUrl': 'http://weixin.qq.com/q/025KEWo17de_D100000073', 'inspectionRegex': '', 'instId': 1072, 'instImages': '[""]', 'instLevel': 1, 'instName': '杭州-禾连内网测试医院98', 'instPic': 'http://file.helianhealth.com/managefile/2020/07/06/81ae1ef2aa6846118834b98c9b867e74.jpeg', 'instSpec': None, 'instType': 1, 'isAddItem': True, 'isChain': 0, 'isExcludeOpen': 0, 'isGroupSyn': 1, 'isMiniQueue': 1, 'isPersonSyn': 1, 'isRecommended': 1, 'isReserve': 1, 'isSendPkgId': 0, 'isSyncFeeitem': 1, 'isSyncPatient': 1, 'isSyncSuit': 1, 'isTimeAppointment': 1, 'latitude': 30.290406, 'longitude': 120.086338, 'medicalLicense': None, 'modifyTime': 1605858372000, 'needCardNo': 0, 'ocrDecode': None, 'operationStatus': 1, 'optimisticLockId': 'HL99998', 'optimisticLockVersion': 1605858372000, 'personalBatchName': '1', 'personalCompanyName': '1', 'personalSectionName': '1', 'personalSyncDay': 2, 'qrcodePic': None, 'replaceExpression': '', 'reportOfDays': 7, 'reportWayFrom': 1, 'reportWayOnline': '', 'reportWayTo': 7, 'reserveDayCapacity': 10000, 'reserveDayDeadline': -28800000, 'reserveForbiddenDay': '20201124', 'reserveForbiddenTime': '23:50:59', 'reserveForbiddenWeek': '[]', 'reserveRangeFrom': 0, 'reserveRangeTo': 365, 'reserveWeek': [1, 2, 3, 4, 5, 6, 7], 'salePriceOpen': 0, 'sendCardNotificationSms': 1, 'sendNonactivatedNotificationSms': 1, 'showAd': 1, 'socialCreditCode': '11', 'speedReserveOpen': 1, 'stationId': 'HL99998', 'stationType': 1, 'status': 2, 'summaryRegex': '', 'supplierName': '禾连医院', 'syncDays': 0, 'syncReportModel': 2, 'whiteCompanyIds': '2708,2711,2734'}</t>
-  </si>
-  <si>
-    <t>【系统设置】2-时间戳一致-体检服务-更改机构信息-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"获取机构"}</t>
-  </si>
-  <si>
-    <t>/admin/admin/inst/modify</t>
-  </si>
-  <si>
-    <t>{"instId":1072,"reserveWeek":[1,2,3,4,5,6,7],"reserveRangeFrom":0,"reserveForbiddenTime":"23:50:59","drawBloodEndTime":"11:12","drawBloodStartTime":"07:50","reserveForbiddenDay":"20201124","whiteCompanyIds":"2708,2711,2734"}</t>
-  </si>
-  <si>
-    <t>【系统设置】3-时间戳不一致-体检服务-更改机构信息-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"获取机构","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【系统设置】4-时间戳不一致-体检服务-更改机构信息-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"获取机构","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【系统设置】2-时间戳一致-数据同步-更改机构信息-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"instId":1072,"groupSyncDay":"0","personalSyncDay":1,"reserveWeek":[1,2,3,4,5,6,7],"reserveRangeFrom":0,"reserveForbiddenTime":"23:50:59","drawBloodEndTime":"11:12","drawBloodStartTime":"07:50","whiteCompanyIds":"2708,2711,2734"}</t>
-  </si>
-  <si>
-    <t>【系统设置】3-时间戳不一致-数据同步-更改机构信息-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>【系统设置】4-时间戳不一致-数据同步-更改机构信息-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>【系统设置】2-时间戳一致-业务设置-更改机构信息-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"post": 1,"cxfa":"获取机构"}</t>
-  </si>
-  <si>
-    <t>/admin/admin/inst/individualPurchase/modify</t>
-  </si>
-  <si>
-    <t>{'instId':1072,'familyPkgBuyType':1,'individualPurchase':1,'individualPurchasePriceLowest':0,'enableSurveyQuestion':1}</t>
-  </si>
-  <si>
-    <t>【系统设置】3-时间戳不一致-业务设置-更改机构信息-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"post": 1,"cxfa":"获取机构","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【系统设置】4-时间戳不一致-业务设置-更改机构信息-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"post": 1,"cxfa":"获取机构","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【单位体检】1-正常-单位批次-获取批次信息-成功</t>
-  </si>
-  <si>
-    <t>/admin/card/v3/batch/2695</t>
-  </si>
-  <si>
-    <t>{'auditOpenSync': 1, 'batchId': 2695, 'batchName': '基础体检女', 'batchProcess': 4, 'batchTimeAppointStatus': 0, 'bindTypes': '1', 'createTimeStamp': 1605098979000, 'dateJson': '[{"date":1605024000000,"examCount":1000},{"date":1605110400000,"examCount":1000},{"date":1605196800000,"examCount":1000},{"date":1605283200000,"examCount":1000},{"date":1605369600000,"examCount":1000},{"date":1605456000000,"examCount":1000},{"date":1605542400000,"examCount":1000},{"date":1605628800000,"examCount":1000},{"date":1605715200000,"examCount":1000},{"date":1605801600000,"examCount":1000},{"date":1605888000000,"examCount":1000},{"date":1605974400000,"examCount":1000},{"date":1606060800000,"examCount":1000},{"date":1606147200000,"examCount":1000},{"date":1606233600000,"examCount":1000},{"date":1606320000000,"examCount":1000},{"date":1606406400000,"examCount":1000},{"date":1606492800000,"examCount":1000},{"date":1606579200000,"examCount":1000},{"date":1606665600000,"examCount":1000},{"date":1606752000000,"examCount":1000},{"date":1606838400000,"examCount":1000},{"date":1606924800000,"examCount":1000},{"date":1607011200000,"examCount":1000},{"date":1607097600000,"examCount":1000},{"date":1607184000000,"examCount":1000},{"date":1607270400000,"examCount":1000},{"date":1607356800000,"examCount":1000},{"date":1607443200000,"examCount":1000},{"date":1607529600000,"examCount":1000},{"date":1607616000000,"examCount":1000},{"date":1607702400000,"examCount":1000},{"date":1607788800000,"examCount":1000},{"date":1607875200000,"examCount":1000},{"date":1607961600000,"examCount":1000},{"date":1608048000000,"examCount":1000},{"date":1608134400000,"examCount":1000},{"date":1608220800000,"examCount":1000},{"date":1608307200000,"examCount":1000},{"date":1608393600000,"examCount":1000},{"date":1608480000000,"examCount":1000},{"date":1608566400000,"examCount":1000},{"date":1608652800000,"examCount":1000},{"date":1608739200000,"examCount":1000},{"date":1608825600000,"examCount":1000},{"date":1608912000000,"examCount":1000},{"date":1608998400000,"examCount":1000},{"date":1609084800000,"examCount":1000},{"date":1609171200000,"examCount":1000},{"date":1609257600000,"examCount":1000},{"date":1609344000000,"examCount":1000},{"date":1609430400000,"examCount":1000},{"date":1609516800000,"examCount":1000},{"date":1609603200000,"examCount":1000},{"date":1609689600000,"examCount":1000},{"date":1609776000000,"examCount":1000},{"date":1609862400000,"examCount":1000},{"date":1609948800000,"examCount":1000},{"date":1610035200000,"examCount":1000},{"date":1610121600000,"examCount":1000},{"date":1610208000000,"examCount":1000},{"date":1610294400000,"examCount":1000},{"date":1610380800000,"examCount":1000},{"date":1610467200000,"examCount":1000},{"date":1610553600000,"examCount":1000},{"date":1610640000000,"examCount":1000},{"date":1610726400000,"examCount":1000},{"date":1610812800000,"examCount":1000},{"date":1610899200000,"examCount":1000},{"date":1610985600000,"examCount":1000},{"date":1611072000000,"examCount":1000},{"date":1611158400000,"examCount":1000},{"date":1611244800000,"examCount":1000},{"date":1611331200000,"examCount":1000},{"date":1611417600000,"examCount":1000},{"date":1611504000000,"examCount":1000},{"date":1611590400000,"examCount":1000},{"date":1611676800000,"examCount":1000},{"date":1611763200000,"examCount":1000},{"date":1611849600000,"examCount":1000},{"date":1611936000000,"examCount":1000},{"date":1612022400000,"examCount":1000},{"date":1612108800000,"examCount":1000},{"date":1612195200000,"examCount":1000},{"date":1612281600000,"examCount":1000},{"date":1612368000000,"examCount":1000},{"date":1612454400000,"examCount":1000},{"date":1612540800000,"examCount":1000},{"date":1612627200000,"examCount":1000},{"date":1612713600000,"examCount":1000},{"date":1612800000000,"examCount":1000},{"date":1612886400000,"examCount":1000},{"date":1612972800000,"examCount":1000},{"date":1613059200000,"examCount":1000},{"date":1613145600000,"examCount":1000},{"date":1613232000000,"examCount":1000},{"date":1613318400000,"examCount":1000},{"date":1613404800000,"examCount":1000},{"date":1613491200000,"examCount":1000},{"date":1613577600000,"examCount":1000},{"date":1613664000000,"examCount":1000},{"date":1613750400000,"examCount":1000},{"date":1613836800000,"examCount":1000},{"date":1613923200000,"examCount":1000},{"date":1614009600000,"examCount":1000},{"date":1614096000000,"examCount":1000},{"date":1614182400000,"examCount":1000},{"date":1614268800000,"examCount":1000},{"date":1614355200000,"examCount":1000},{"date":1614441600000,"examCount":1000},{"date":1614528000000,"examCount":1000},{"date":1614614400000,"examCount":1000},{"date":1614700800000,"examCount":1000},{"date":1614787200000,"examCount":1000},{"date":1614873600000,"examCount":1000},{"date":1614960000000,"examCount":1000},{"date":1615046400000,"examCount":1000},{"date":1615132800000,"examCount":1000},{"date":1615219200000,"examCount":1000},{"date":1615305600000,"examCount":1000},{"date":1615392000000,"examCount":1000},{"date":1615478400000,"examCount":1000},{"date":1615564800000,"examCount":1000},{"date":1615651200000,"examCount":1000},{"date":1615737600000,"examCount":1000},{"date":1615824000000,"examCount":1000},{"date":1615910400000,"examCount":1000},{"date":1615996800000,"examCount":1000},{"date":1616083200000,"examCount":1000},{"date":1616169600000,"examCount":1000},{"date":1616256000000,"examCount":1000},{"date":1616342400000,"examCount":1000},{"date":1616428800000,"examCount":1000},{"date":1616515200000,"examCount":1000},{"date":1616601600000,"examCount":1000},{"date":1616688000000,"examCount":1000},{"date":1616774400000,"examCount":1000},{"date":1616860800000,"examCount":1000},{"date":1616947200000,"examCount":1000},{"date":1617033600000,"examCount":1000},{"date":1617120000000,"examCount":1000},{"date":1617206400000,"examCount":1000},{"date":1617292800000,"examCount":1000},{"date":1617379200000,"examCount":1000},{"date":1617465600000,"examCount":1000},{"date":1617552000000,"examCount":1000},{"date":1617638400000,"examCount":1000},{"date":1617724800000,"examCount":1000},{"date":1617811200000,"examCount":1000},{"date":1617897600000,"examCount":1000},{"date":1617984000000,"examCount":1000},{"date":1618070400000,"examCount":1000},{"date":1618156800000,"examCount":1000},{"date":1618243200000,"examCount":1000},{"date":1618329600000,"examCount":1000},{"date":1618416000000,"examCount":1000},{"date":1618502400000,"examCount":1000},{"date":1618588800000,"examCount":1000},{"date":1618675200000,"examCount":1000},{"date":1618761600000,"examCount":1000},{"date":1618848000000,"examCount":1000},{"date":1618934400000,"examCount":1000},{"date":1619020800000,"examCount":1000},{"date":1619107200000,"examCount":1000},{"date":1619193600000,"examCount":1000},{"date":1619280000000,"examCount":1000},{"date":1619366400000,"examCount":1000},{"date":1619452800000,"examCount":1000},{"date":1619539200000,"examCount":1000},{"date":1619625600000,"examCount":1000},{"date":1619712000000,"examCount":1000},{"date":1619798400000,"examCount":1000},{"date":1619884800000,"examCount":1000},{"date":1619971200000,"examCount":1000},{"date":1620057600000,"examCount":1000},{"date":1620144000000,"examCount":1000},{"date":1620230400000,"examCount":1000},{"date":1620316800000,"examCount":1000},{"date":1620403200000,"examCount":1000},{"date":1620489600000,"examCount":1000},{"date":1620576000000,"examCount":1000},{"date":1620662400000,"examCount":1000},{"date":1620748800000,"examCount":1000},{"date":1620835200000,"examCount":1000},{"date":1620921600000,"examCount":1000},{"date":1621008000000,"examCount":1000},{"date":1621094400000,"examCount":1000},{"date":1621180800000,"examCount":1000},{"date":1621267200000,"examCount":1000},{"date":1621353600000,"examCount":1000},{"date":1621440000000,"examCount":1000},{"date":1621526400000,"examCount":1000},{"date":1621612800000,"examCount":1000},{"date":1621699200000,"examCount":1000},{"date":1621785600000,"examCount":1000},{"date":1621872000000,"examCount":1000},{"date":1621958400000,"examCount":1000},{"date":1622044800000,"examCount":1000},{"date":1622131200000,"examCount":1000},{"date":1622217600000,"examCount":1000},{"date":1622304000000,"examCount":1000},{"date":1622390400000,"examCount":1000},{"date":1622476800000,"examCount":1000},{"date":1622563200000,"examCount":1000},{"date":1622649600000,"examCount":1000},{"date":1622736000000,"examCount":1000},{"date":1622822400000,"examCount":1000},{"date":1622908800000,"examCount":1000},{"date":1622995200000,"examCount":1000},{"date":1623081600000,"examCount":1000},{"date":1623168000000,"examCount":1000},{"date":1623254400000,"examCount":1000},{"date":1623340800000,"examCount":1000},{"date":1623427200000,"examCount":1000},{"date":1623513600000,"examCount":1000},{"date":1623600000000,"examCount":1000},{"date":1623686400000,"examCount":1000},{"date":1623772800000,"examCount":1000},{"date":1623859200000,"examCount":1000},{"date":1623945600000,"examCount":1000},{"date":1624032000000,"examCount":1000},{"date":1624118400000,"examCount":1000},{"date":1624204800000,"examCount":1000},{"date":1624291200000,"examCount":1000},{"date":1624377600000,"examCount":1000},{"date":1624464000000,"examCount":1000},{"date":1624550400000,"examCount":1000},{"date":1624636800000,"examCount":1000},{"date":1624723200000,"examCount":1000},{"date":1624809600000,"examCount":1000},{"date":1624896000000,"examCount":1000},{"date":1624982400000,"examCount":1000},{"date":1625068800000,"examCount":1000},{"date":1625155200000,"examCount":1000},{"date":1625241600000,"examCount":1000},{"date":1625328000000,"examCount":1000},{"date":1625414400000,"examCount":1000},{"date":1625500800000,"examCount":1000},{"date":1625587200000,"examCount":1000},{"date":1625673600000,"examCount":1000},{"date":1625760000000,"examCount":1000},{"date":1625846400000,"examCount":1000},{"date":1625932800000,"examCount":1000},{"date":1626019200000,"examCount":1000},{"date":1626105600000,"examCount":1000},{"date":1626192000000,"examCount":1000},{"date":1626278400000,"examCount":1000},{"date":1626364800000,"examCount":1000},{"date":1626451200000,"examCount":1000},{"date":1626537600000,"examCount":1000},{"date":1626624000000,"examCount":1000},{"date":1626710400000,"examCount":1000},{"date":1626796800000,"examCount":1000},{"date":1626883200000,"examCount":1000},{"date":1626969600000,"examCount":1000},{"date":1627056000000,"examCount":1000},{"date":1627142400000,"examCount":1000},{"date":1627228800000,"examCount":1000},{"date":1627315200000,"examCount":1000},{"date":1627401600000,"examCount":1000},{"date":1627488000000,"examCount":1000},{"date":1627574400000,"examCount":1000},{"date":1627660800000,"examCount":1000},{"date":1627747200000,"examCount":1000},{"date":1627833600000,"examCount":1000},{"date":1627920000000,"examCount":1000},{"date":1628006400000,"examCount":1000},{"date":1628092800000,"examCount":1000},{"date":1628179200000,"examCount":1000},{"date":1628265600000,"examCount":1000},{"date":1628352000000,"examCount":1000},{"date":1628438400000,"examCount":1000},{"date":1628524800000,"examCount":1000},{"date":1628611200000,"examCount":1000},{"date":1628697600000,"examCount":1000},{"date":1628784000000,"examCount":1000},{"date":1628870400000,"examCount":1000},{"date":1628956800000,"examCount":1000},{"date":1629043200000,"examCount":1000},{"date":1629129600000,"examCount":1000},{"date":1629216000000,"examCount":1000},{"date":1629302400000,"examCount":1000},{"date":1629388800000,"examCount":1000},{"date":1629475200000,"examCount":1000},{"date":1629561600000,"examCount":1000},{"date":1629648000000,"examCount":1000},{"date":1629734400000,"examCount":1000},{"date":1629820800000,"examCount":1000},{"date":1629907200000,"examCount":1000},{"date":1629993600000,"examCount":1000},{"date":1630080000000,"examCount":1000},{"date":1630166400000,"examCount":1000},{"date":1630252800000,"examCount":1000},{"date":1630339200000,"examCount":1000},{"date":1630425600000,"examCount":1000},{"date":1630512000000,"examCount":1000},{"date":1630598400000,"examCount":1000},{"date":1630684800000,"examCount":1000},{"date":1630771200000,"examCount":1000},{"date":1630857600000,"examCount":1000},{"date":1630944000000,"examCount":1000},{"date":1631030400000,"examCount":1000},{"date":1631116800000,"examCount":1000},{"date":1631203200000,"examCount":1000},{"date":1631289600000,"examCount":1000},{"date":1631376000000,"examCount":1000},{"date":1631462400000,"examCount":1000},{"date":1631548800000,"examCount":1000},{"date":1631635200000,"examCount":1000},{"date":1631721600000,"examCount":1000},{"date":1631808000000,"examCount":1000},{"date":1631894400000,"examCount":1000},{"date":1631980800000,"examCount":1000},{"date":1632067200000,"examCount":1000},{"date":1632153600000,"examCount":1000},{"date":1632240000000,"examCount":1000},{"date":1632326400000,"examCount":1000},{"date":1632412800000,"examCount":1000},{"date":1632499200000,"examCount":1000},{"date":1632585600000,"examCount":1000},{"date":1632672000000,"examCount":1000},{"date":1632758400000,"examCount":1000},{"date":1632844800000,"examCount":1000},{"date":1632931200000,"examCount":1000},{"date":1633017600000,"examCount":1000},{"date":1633104000000,"examCount":1000},{"date":1633190400000,"examCount":1000},{"date":1633276800000,"examCount":1000},{"date":1633363200000,"examCount":1000},{"date":1633449600000,"examCount":1000},{"date":1633536000000,"examCount":1000},{"date":1633622400000,"examCount":1000},{"date":1633708800000,"examCount":1000},{"date":1633795200000,"examCount":1000},{"date":1633881600000,"examCount":1000},{"date":1633968000000,"examCount":1000},{"date":1634054400000,"examCount":1000},{"date":1634140800000,"examCount":1000},{"date":1634227200000,"examCount":1000},{"date":1634313600000,"examCount":1000},{"date":1634400000000,"examCount":1000},{"date":1634486400000,"examCount":1000},{"date":1634572800000,"examCount":1000},{"date":1634659200000,"examCount":1000},{"date":1634745600000,"examCount":1000},{"date":1634832000000,"examCount":1000},{"date":1634918400000,"examCount":1000},{"date":1635004800000,"examCount":1000},{"date":1635091200000,"examCount":1000},{"date":1635177600000,"examCount":1000},{"date":1635264000000,"examCount":1000},{"date":1635350400000,"examCount":1000},{"date":1635436800000,"examCount":1000},{"date":1635523200000,"examCount":1000},{"date":1635609600000,"examCount":1000},{"date":1635696000000,"examCount":1000},{"date":1635782400000,"examCount":1000},{"date":1635868800000,"examCount":1000},{"date":1635955200000,"examCount":1000},{"date":1636041600000,"examCount":1000},{"date":1636128000000,"examCount":1000},{"date":1636214400000,"examCount":1000},{"date":1636300800000,"examCount":1000},{"date":1636387200000,"examCount":1000},{"date":1636473600000,"examCount":1000}]', 'deadlineTimeStamp': None, 'deadlineTimeStr': None, 'employeesProvided': 1, 'enableSyncHos': 1, 'examEndTimeStamp': 1636473600000, 'examEndTimeStr': '2021-11-10', 'examStartTimeStamp': 1605024000000, 'examStartTimeStr': '2020-11-11', 'isExpired': 0, 'issuedCount': 1, 'notIssuedCount': 0, 'optimisticLockId': '2695', 'optimisticLockVersion': 1605857880000, 'showEnableSyncHos': 1, 'unGroupedCount': 0}</t>
-  </si>
-  <si>
-    <t>【单位体检】2-时间戳一致-单位批次-批次新增或者更新-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"批次信息"}</t>
-  </si>
-  <si>
-    <t>/admin/card/v3/batch/save</t>
-  </si>
-  <si>
-    <t>{"batchId":"2695","batchName":"基础体检女","employeesProvided":"1","bindTypes":"1","dateJson":[{"date":1605024000000,"examCount":1000},{"date":1605110400000,"examCount":1000},{"date":1605196800000,"examCount":1000},{"date":1605283200000,"examCount":1000},{"date":1605369600000,"examCount":1000},{"date":1605456000000,"examCount":1000},{"date":1605542400000,"examCount":1000},{"date":1605628800000,"examCount":1000},{"date":1605715200000,"examCount":1000},{"date":1605801600000,"examCount":1000},{"date":1605888000000,"examCount":1000},{"date":1605974400000,"examCount":1000},{"date":1606060800000,"examCount":1000},{"date":1606147200000,"examCount":1000},{"date":1606233600000,"examCount":1000},{"date":1606320000000,"examCount":1000},{"date":1606406400000,"examCount":1000},{"date":1606492800000,"examCount":1000},{"date":1606579200000,"examCount":1000},{"date":1606665600000,"examCount":1000},{"date":1606752000000,"examCount":1000},{"date":1606838400000,"examCount":1000},{"date":1606924800000,"examCount":1000},{"date":1607011200000,"examCount":1000},{"date":1607097600000,"examCount":1000},{"date":1607184000000,"examCount":1000},{"date":1607270400000,"examCount":1000},{"date":1607356800000,"examCount":1000},{"date":1607443200000,"examCount":1000},{"date":1607529600000,"examCount":1000},{"date":1607616000000,"examCount":1000},{"date":1607702400000,"examCount":1000},{"date":1607788800000,"examCount":1000},{"date":1607875200000,"examCount":1000},{"date":1607961600000,"examCount":1000},{"date":1608048000000,"examCount":1000},{"date":1608134400000,"examCount":1000},{"date":1608220800000,"examCount":1000},{"date":1608307200000,"examCount":1000},{"date":1608393600000,"examCount":1000},{"date":1608480000000,"examCount":1000},{"date":1608566400000,"examCount":1000},{"date":1608652800000,"examCount":1000},{"date":1608739200000,"examCount":1000},{"date":1608825600000,"examCount":1000},{"date":1608912000000,"examCount":1000},{"date":1608998400000,"examCount":1000},{"date":1609084800000,"examCount":1000},{"date":1609171200000,"examCount":1000},{"date":1609257600000,"examCount":1000},{"date":1609344000000,"examCount":1000},{"date":1609430400000,"examCount":1000},{"date":1609516800000,"examCount":1000},{"date":1609603200000,"examCount":1000},{"date":1609689600000,"examCount":1000},{"date":1609776000000,"examCount":1000},{"date":1609862400000,"examCount":1000},{"date":1609948800000,"examCount":1000},{"date":1610035200000,"examCount":1000},{"date":1610121600000,"examCount":1000},{"date":1610208000000,"examCount":1000},{"date":1610294400000,"examCount":1000},{"date":1610380800000,"examCount":1000},{"date":1610467200000,"examCount":1000},{"date":1610553600000,"examCount":1000},{"date":1610640000000,"examCount":1000},{"date":1610726400000,"examCount":1000},{"date":1610812800000,"examCount":1000},{"date":1610899200000,"examCount":1000},{"date":1610985600000,"examCount":1000},{"date":1611072000000,"examCount":1000},{"date":1611158400000,"examCount":1000},{"date":1611244800000,"examCount":1000},{"date":1611331200000,"examCount":1000},{"date":1611417600000,"examCount":1000},{"date":1611504000000,"examCount":1000},{"date":1611590400000,"examCount":1000},{"date":1611676800000,"examCount":1000},{"date":1611763200000,"examCount":1000},{"date":1611849600000,"examCount":1000},{"date":1611936000000,"examCount":1000},{"date":1612022400000,"examCount":1000},{"date":1612108800000,"examCount":1000},{"date":1612195200000,"examCount":1000},{"date":1612281600000,"examCount":1000},{"date":1612368000000,"examCount":1000},{"date":1612454400000,"examCount":1000},{"date":1612540800000,"examCount":1000},{"date":1612627200000,"examCount":1000},{"date":1612713600000,"examCount":1000},{"date":1612800000000,"examCount":1000},{"date":1612886400000,"examCount":1000},{"date":1612972800000,"examCount":1000},{"date":1613059200000,"examCount":1000},{"date":1613145600000,"examCount":1000},{"date":1613232000000,"examCount":1000},{"date":1613318400000,"examCount":1000},{"date":1613404800000,"examCount":1000},{"date":1613491200000,"examCount":1000},{"date":1613577600000,"examCount":1000},{"date":1613664000000,"examCount":1000},{"date":1613750400000,"examCount":1000},{"date":1613836800000,"examCount":1000},{"date":1613923200000,"examCount":1000},{"date":1614009600000,"examCount":1000},{"date":1614096000000,"examCount":1000},{"date":1614182400000,"examCount":1000},{"date":1614268800000,"examCount":1000},{"date":1614355200000,"examCount":1000},{"date":1614441600000,"examCount":1000},{"date":1614528000000,"examCount":1000},{"date":1614614400000,"examCount":1000},{"date":1614700800000,"examCount":1000},{"date":1614787200000,"examCount":1000},{"date":1614873600000,"examCount":1000},{"date":1614960000000,"examCount":1000},{"date":1615046400000,"examCount":1000},{"date":1615132800000,"examCount":1000},{"date":1615219200000,"examCount":1000},{"date":1615305600000,"examCount":1000},{"date":1615392000000,"examCount":1000},{"date":1615478400000,"examCount":1000},{"date":1615564800000,"examCount":1000},{"date":1615651200000,"examCount":1000},{"date":1615737600000,"examCount":1000},{"date":1615824000000,"examCount":1000},{"date":1615910400000,"examCount":1000},{"date":1615996800000,"examCount":1000},{"date":1616083200000,"examCount":1000},{"date":1616169600000,"examCount":1000},{"date":1616256000000,"examCount":1000},{"date":1616342400000,"examCount":1000},{"date":1616428800000,"examCount":1000},{"date":1616515200000,"examCount":1000},{"date":1616601600000,"examCount":1000},{"date":1616688000000,"examCount":1000},{"date":1616774400000,"examCount":1000},{"date":1616860800000,"examCount":1000},{"date":1616947200000,"examCount":1000},{"date":1617033600000,"examCount":1000},{"date":1617120000000,"examCount":1000},{"date":1617206400000,"examCount":1000},{"date":1617292800000,"examCount":1000},{"date":1617379200000,"examCount":1000},{"date":1617465600000,"examCount":1000},{"date":1617552000000,"examCount":1000},{"date":1617638400000,"examCount":1000},{"date":1617724800000,"examCount":1000},{"date":1617811200000,"examCount":1000},{"date":1617897600000,"examCount":1000},{"date":1617984000000,"examCount":1000},{"date":1618070400000,"examCount":1000},{"date":1618156800000,"examCount":1000},{"date":1618243200000,"examCount":1000},{"date":1618329600000,"examCount":1000},{"date":1618416000000,"examCount":1000},{"date":1618502400000,"examCount":1000},{"date":1618588800000,"examCount":1000},{"date":1618675200000,"examCount":1000},{"date":1618761600000,"examCount":1000},{"date":1618848000000,"examCount":1000},{"date":1618934400000,"examCount":1000},{"date":1619020800000,"examCount":1000},{"date":1619107200000,"examCount":1000},{"date":1619193600000,"examCount":1000},{"date":1619280000000,"examCount":1000},{"date":1619366400000,"examCount":1000},{"date":1619452800000,"examCount":1000},{"date":1619539200000,"examCount":1000},{"date":1619625600000,"examCount":1000},{"date":1619712000000,"examCount":1000},{"date":1619798400000,"examCount":1000},{"date":1619884800000,"examCount":1000},{"date":1619971200000,"examCount":1000},{"date":1620057600000,"examCount":1000},{"date":1620144000000,"examCount":1000},{"date":1620230400000,"examCount":1000},{"date":1620316800000,"examCount":1000},{"date":1620403200000,"examCount":1000},{"date":1620489600000,"examCount":1000},{"date":1620576000000,"examCount":1000},{"date":1620662400000,"examCount":1000},{"date":1620748800000,"examCount":1000},{"date":1620835200000,"examCount":1000},{"date":1620921600000,"examCount":1000},{"date":1621008000000,"examCount":1000},{"date":1621094400000,"examCount":1000},{"date":1621180800000,"examCount":1000},{"date":1621267200000,"examCount":1000},{"date":1621353600000,"examCount":1000},{"date":1621440000000,"examCount":1000},{"date":1621526400000,"examCount":1000},{"date":1621612800000,"examCount":1000},{"date":1621699200000,"examCount":1000},{"date":1621785600000,"examCount":1000},{"date":1621872000000,"examCount":1000},{"date":1621958400000,"examCount":1000},{"date":1622044800000,"examCount":1000},{"date":1622131200000,"examCount":1000},{"date":1622217600000,"examCount":1000},{"date":1622304000000,"examCount":1000},{"date":1622390400000,"examCount":1000},{"date":1622476800000,"examCount":1000},{"date":1622563200000,"examCount":1000},{"date":1622649600000,"examCount":1000},{"date":1622736000000,"examCount":1000},{"date":1622822400000,"examCount":1000},{"date":1622908800000,"examCount":1000},{"date":1622995200000,"examCount":1000},{"date":1623081600000,"examCount":1000},{"date":1623168000000,"examCount":1000},{"date":1623254400000,"examCount":1000},{"date":1623340800000,"examCount":1000},{"date":1623427200000,"examCount":1000},{"date":1623513600000,"examCount":1000},{"date":1623600000000,"examCount":1000},{"date":1623686400000,"examCount":1000},{"date":1623772800000,"examCount":1000},{"date":1623859200000,"examCount":1000},{"date":1623945600000,"examCount":1000},{"date":1624032000000,"examCount":1000},{"date":1624118400000,"examCount":1000},{"date":1624204800000,"examCount":1000},{"date":1624291200000,"examCount":1000},{"date":1624377600000,"examCount":1000},{"date":1624464000000,"examCount":1000},{"date":1624550400000,"examCount":1000},{"date":1624636800000,"examCount":1000},{"date":1624723200000,"examCount":1000},{"date":1624809600000,"examCount":1000},{"date":1624896000000,"examCount":1000},{"date":1624982400000,"examCount":1000},{"date":1625068800000,"examCount":1000},{"date":1625155200000,"examCount":1000},{"date":1625241600000,"examCount":1000},{"date":1625328000000,"examCount":1000},{"date":1625414400000,"examCount":1000},{"date":1625500800000,"examCount":1000},{"date":1625587200000,"examCount":1000},{"date":1625673600000,"examCount":1000},{"date":1625760000000,"examCount":1000},{"date":1625846400000,"examCount":1000},{"date":1625932800000,"examCount":1000},{"date":1626019200000,"examCount":1000},{"date":1626105600000,"examCount":1000},{"date":1626192000000,"examCount":1000},{"date":1626278400000,"examCount":1000},{"date":1626364800000,"examCount":1000},{"date":1626451200000,"examCount":1000},{"date":1626537600000,"examCount":1000},{"date":1626624000000,"examCount":1000},{"date":1626710400000,"examCount":1000},{"date":1626796800000,"examCount":1000},{"date":1626883200000,"examCount":1000},{"date":1626969600000,"examCount":1000},{"date":1627056000000,"examCount":1000},{"date":1627142400000,"examCount":1000},{"date":1627228800000,"examCount":1000},{"date":1627315200000,"examCount":1000},{"date":1627401600000,"examCount":1000},{"date":1627488000000,"examCount":1000},{"date":1627574400000,"examCount":1000},{"date":1627660800000,"examCount":1000},{"date":1627747200000,"examCount":1000},{"date":1627833600000,"examCount":1000},{"date":1627920000000,"examCount":1000},{"date":1628006400000,"examCount":1000},{"date":1628092800000,"examCount":1000},{"date":1628179200000,"examCount":1000},{"date":1628265600000,"examCount":1000},{"date":1628352000000,"examCount":1000},{"date":1628438400000,"examCount":1000},{"date":1628524800000,"examCount":1000},{"date":1628611200000,"examCount":1000},{"date":1628697600000,"examCount":1000},{"date":1628784000000,"examCount":1000},{"date":1628870400000,"examCount":1000},{"date":1628956800000,"examCount":1000},{"date":1629043200000,"examCount":1000},{"date":1629129600000,"examCount":1000},{"date":1629216000000,"examCount":1000},{"date":1629302400000,"examCount":1000},{"date":1629388800000,"examCount":1000},{"date":1629475200000,"examCount":1000},{"date":1629561600000,"examCount":1000},{"date":1629648000000,"examCount":1000},{"date":1629734400000,"examCount":1000},{"date":1629820800000,"examCount":1000},{"date":1629907200000,"examCount":1000},{"date":1629993600000,"examCount":1000},{"date":1630080000000,"examCount":1000},{"date":1630166400000,"examCount":1000},{"date":1630252800000,"examCount":1000},{"date":1630339200000,"examCount":1000},{"date":1630425600000,"examCount":1000},{"date":1630512000000,"examCount":1000},{"date":1630598400000,"examCount":1000},{"date":1630684800000,"examCount":1000},{"date":1630771200000,"examCount":1000},{"date":1630857600000,"examCount":1000},{"date":1630944000000,"examCount":1000},{"date":1631030400000,"examCount":1000},{"date":1631116800000,"examCount":1000},{"date":1631203200000,"examCount":1000},{"date":1631289600000,"examCount":1000},{"date":1631376000000,"examCount":1000},{"date":1631462400000,"examCount":1000},{"date":1631548800000,"examCount":1000},{"date":1631635200000,"examCount":1000},{"date":1631721600000,"examCount":1000},{"date":1631808000000,"examCount":1000},{"date":1631894400000,"examCount":1000},{"date":1631980800000,"examCount":1000},{"date":1632067200000,"examCount":1000},{"date":1632153600000,"examCount":1000},{"date":1632240000000,"examCount":1000},{"date":1632326400000,"examCount":1000},{"date":1632412800000,"examCount":1000},{"date":1632499200000,"examCount":1000},{"date":1632585600000,"examCount":1000},{"date":1632672000000,"examCount":1000},{"date":1632758400000,"examCount":1000},{"date":1632844800000,"examCount":1000},{"date":1632931200000,"examCount":1000},{"date":1633017600000,"examCount":1000},{"date":1633104000000,"examCount":1000},{"date":1633190400000,"examCount":1000},{"date":1633276800000,"examCount":1000},{"date":1633363200000,"examCount":1000},{"date":1633449600000,"examCount":1000},{"date":1633536000000,"examCount":1000},{"date":1633622400000,"examCount":1000},{"date":1633708800000,"examCount":1000},{"date":1633795200000,"examCount":1000},{"date":1633881600000,"examCount":1000},{"date":1633968000000,"examCount":1000},{"date":1634054400000,"examCount":1000},{"date":1634140800000,"examCount":1000},{"date":1634227200000,"examCount":1000},{"date":1634313600000,"examCount":1000},{"date":1634400000000,"examCount":1000},{"date":1634486400000,"examCount":1000},{"date":1634572800000,"examCount":1000},{"date":1634659200000,"examCount":1000},{"date":1634745600000,"examCount":1000},{"date":1634832000000,"examCount":1000},{"date":1634918400000,"examCount":1000},{"date":1635004800000,"examCount":1000},{"date":1635091200000,"examCount":1000},{"date":1635177600000,"examCount":1000},{"date":1635264000000,"examCount":1000},{"date":1635350400000,"examCount":1000},{"date":1635436800000,"examCount":1000},{"date":1635523200000,"examCount":1000},{"date":1635609600000,"examCount":1000},{"date":1635696000000,"examCount":1000},{"date":1635782400000,"examCount":1000},{"date":1635868800000,"examCount":1000},{"date":1635955200000,"examCount":1000},{"date":1636041600000,"examCount":1000},{"date":1636128000000,"examCount":1000},{"date":1636214400000,"examCount":1000},{"date":1636300800000,"examCount":1000},{"date":1636387200000,"examCount":1000},{"date":1636473600000,"examCount":1000}],"examEndTime":1636473600000,"examStartTime":1605024000000,"companyId":"2734","deadlineTime":"","batchTimeAppointStatus":0,"branchRatioList":[],"intervalList":[],"enableSyncHos":1,"stationId":"HL99998"}</t>
-  </si>
-  <si>
-    <t>{'batchId': 2695}</t>
-  </si>
-  <si>
-    <t>【单位体检】3-时间戳不一致-单位批次-批次新增或者更新-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"批次信息","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【单位体检】4-时间戳不一致-单位批次-批次新增或者更新-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"批次信息","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【单位体检】2-时间戳一致-分组与人员-保存和更新分组信息-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>/admin/card/v3/group/save</t>
-  </si>
-  <si>
-    <t>{"list":[{"addFeeitemDiscount":"1","addFeeitemIds":"","addFeeitems":[],"ageMax":"","ageMin":"","batchId":2695,"cardFamilySuiteExtendDoList":[],"cardType":3,"cardValue":1,"companyId":2734,"editable":0,"enableRecommendSurvey":1,"examinationPassword":"","gender":2,"groupName":"空白分组","itemType":1,"married":2,"mutualExclusion":"0","optionalItemsBos":[],"optionalPkgsBos":[],"packageName":"团检女","reserveCardId":3370,"selfDiscount":"1","stationId":"HL99998","suitId":14610,"upgradePkgBos":[],"agePros":2,"selFamilyIds":[]}]}</t>
-  </si>
-  <si>
-    <t>【单位体检】3-时间戳不一致-分组与人员-保存和更新分组信息-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>【单位体检】4-时间戳不一致-分组与人员-保存和更新分组信息-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>【项目管理】1-正常-医院体检项目-获取项目信息-成功</t>
-  </si>
-  <si>
-    <t>/admin/item/examHospital/list/HL99998/1/10</t>
-  </si>
-  <si>
-    <t>{"name":"","addFrom":0,"isAdd":''}</t>
-  </si>
-  <si>
-    <t>{'list': [{'addFrom': 0, 'canAdd': 1, 'desc': '尿常规是医学检验“三大常规”项目之一，通过对尿液成分、形状等进行分析，用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能，还可用于协助检查其他系统疾病，如糖尿病、高血压、肝炎等。', 'discount': 1.0, 'gender': 0, 'id': 102926, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'HY0002', 'itemTagId': 18, 'name': '尿常规', 'notice': '1.尽量留取晨尿，留取时需选择中段尿（10ml以上)\n2.女性月经期及其前后3-5天一般不宜留取尿液送检，以免经血混入小便，造成血尿的假象；\n3.尿液留取后需尽快送实验室检查；\n4.检测前一天应当避免同房、剧烈运动等；前一天晚上8点后避免大量进食、饮水。\n5. 检测前不要使用抗菌药物，以免影响检查结果的准确性。', 'optimisticLockId': '102926', 'optimisticLockVersion': 1605857888000, 'orderNum': None, 'originalPrice': None, 'price': 600, 'purpose': '用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能等', 'reason': '检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能等', 'salePrice': 6.0, 'specialRemark': '尿常规尿常规尿常规尿常规eeeee11111111', 'standardItemDesc': '尿常规是医学检验“三大常规”项目之一，通过对尿液成分、形状等进行分析，用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能，还可用于协助检查其他系统疾病，如糖尿病、高血压、肝炎等。', 'standardItemId': 106, 'standardItemName': '尿常规', 'standardItemNotice': '1.尽量留取晨尿，留取时需选择中段尿（10ml以上)\n2.女性月经期及其前后3-5天一般不宜留取尿液送检，以免经血混入小便，造成血尿的假象；\n3.尿液留取后需尽快送实验室检查；\n4.检测前一天应当避免同房、剧烈运动等；前一天晚上8点后避免大量进食、饮水。\n5. 检测前不要使用抗菌药物，以免影响检查结果的准确性。', 'standardItemPurpose': '用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能等', 'stationId': 'HL99998', 'tagName': '必选检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '生化全套检查内容包括：肝功能；血脂；空腹血糖；肾功能；尿酸等', 'discount': None, 'gender': 0, 'id': 102927, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'HY0022', 'itemTagId': 18, 'name': '生化全项', 'notice': '1.抽血检查前避免劳累、运动、喝酒、情绪激动，饮食宜清淡； 2.抽血前一天不吃过于油腻、高蛋白食物，避免大量饮酒，抽血前禁食12小时； 3.检查前保证足够的睡眠时间，避免熬夜； 4.检查前若患有感冒并服用药物，建议感冒痊愈且停药后1周做检查', 'optimisticLockId': '102927', 'optimisticLockVersion': 1605591291000, 'orderNum': None, 'originalPrice': 100.0, 'price': 27800, 'purpose': '常规体检普查；用于疾病的筛查和确证试验', 'reason': '比普通的单项的生化检查查的更全、性价比更高，检查的项目多', 'salePrice': 0.02, 'specialRemark': '这是特殊说明，这个会有不一样哦，哈哈哈哈，看看怎么现实的额吧，一定要显示正常哦\n但是大家时间了洛杉矶大家都是家里都是垃圾的时间是多久的积极的角度', 'standardItemDesc': '生化全套检查内容包括：肝功能；血脂；空腹血糖；肾功能；尿酸等', 'standardItemId': 696, 'standardItemName': '体检生化全套', 'standardItemNotice': '1.抽血检查前避免劳累、运动、喝酒、情绪激动，饮食宜清淡； 2.抽血前一天不吃过于油腻、高蛋白食物，避免大量饮酒，抽血前禁食12小时； 3.检查前保证足够的睡眠时间，避免熬夜； 4.检查前若患有感冒并服用药物，建议感冒痊愈且停药后1周做检查', 'standardItemPurpose': '常规体检普查；用于疾病的筛查和确证试验', 'stationId': 'HL99998', 'tagName': '必选检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '阴道或尿道分泌物中查解尿支原体，其不仅可引起阴道、宫颈等生殖器感染，而且与流产、不育及胎儿宫内发育迟缓有密切关系。', 'discount': None, 'gender': 2, 'id': 102928, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'JK0002', 'itemTagId': 12, 'name': '一次性材料费', 'notice': '女性月经干净后１周后检查，检查前避免同房，一旦阳性，需要男女同治，治疗期间避免同房。', 'optimisticLockId': '102928', 'optimisticLockVersion': 1605687610000, 'orderNum': None, 'originalPrice': None, 'price': 2000, 'purpose': '了解是否感染了解尿支原体', 'reason': '早发现早治疗', 'salePrice': 0.01, 'specialRemark': '一次性材料费', 'standardItemDesc': '阴道或尿道分泌物中查解尿支原体，其不仅可引起阴道、宫颈等生殖器感染，而且与流产、不育及胎儿宫内发育迟缓有密切关系。', 'standardItemId': 823, 'standardItemName': '解尿支原体', 'standardItemNotice': '女性月经干净后１周后检查，检查前避免同房，一旦阳性，需要男女同治，治疗期间避免同房。', 'standardItemPurpose': '了解是否感染了解尿支原体', 'stationId': 'HL99998', 'tagName': '女性检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '', 'discount': None, 'gender': 2, 'id': 102929, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'HY0037', 'itemTagId': 12, 'name': '血脂全项', 'notice': '1.做TCT检查前24小时避免性生活。2.在做TCT检查前3天内不要冲洗阴道或使用阴道栓剂，也不要做阴道内诊。3.如有炎症先治疗，然后再做TCT检查，以免影响诊断结果。4.TCT检查最好安排在月经结束后的3-7天。', 'optimisticLockId': '102929', 'optimisticLockVersion': 1601276410000, 'orderNum': None, 'originalPrice': None, 'price': 6600, 'purpose': '宫颈癌的筛查', 'reason': '面对女性的宫颈癌高发，妇科检查+液基细胞学检查都应该定期检查，TCT技术是应用于妇女宫颈癌筛查的一项先进的技术。', 'salePrice': 66.0, 'specialRemark': None, 'standardItemDesc': '', 'standardItemId': 745, 'standardItemName': '妇科检查+液基细胞学检查', 'standardItemNotice': '1.做TCT检查前24小时避免性生活。2.在做TCT检查前3天内不要冲洗阴道或使用阴道栓剂，也不要做阴道内诊。3.如有炎症先治疗，然后再做TCT检查，以免影响诊断结果。4.TCT检查最好安排在月经结束后的3-7天。', 'standardItemPurpose': '宫颈癌的筛查', 'stationId': 'HL99998', 'tagName': '女性检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '', 'discount': 1.0, 'gender': 1, 'id': 102930, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'DR0001', 'itemTagId': 16, 'name': '颈椎DR三位片', 'notice': '不带任何项链，裸露检查部位，勿要携带金属物品置于身检查；避免紧张积极配合医生检查；备孕或者孕妇不适宜X线类的检查。', 'optimisticLockId': '102930', 'optimisticLockVersion': 1600699015000, 'orderNum': None, 'originalPrice': None, 'price': 26000, 'purpose': '对颈椎进行较为全面的检查', 'reason': '越来越多的人受到颈椎病的困扰，及时早期治疗有较大意义，更加重视颈椎健康。', 'salePrice': 0.01, 'specialRemark': None, 'standardItemDesc': '', 'standardItemId': 746, 'standardItemName': '颈椎正侧双斜位（颈椎四位片）', 'standardItemNotice': '不带任何项链，裸露检查部位，勿要携带金属物品置于身检查；避免紧张积极配合医生检查；备孕或者孕妇不适宜X线类的检查。', 'standardItemPurpose': '对颈椎进行较为全面的检查', 'stationId': 'HL99998', 'tagName': '腰颈椎检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '哇哇哇哇哇哇哇哇哇哇哇哇下踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶', 'discount': None, 'gender': 0, 'id': 102931, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'NK0001', 'itemTagId': 11, 'name': '内科检查(必检）', 'notice': '1.医生评估能否适合做该项检查。\n2.消化道不通畅的患者，进行胶囊内镜检查时要慎重，如经检查证实或怀疑患有消化道畸形、胃肠道梗阻、消化道穿孔、消化道狭窄或瘘管者禁做；对高分子材料过敏者禁做以及其他医生诊断不建议做者禁做。\n', 'optimisticLockId': '102931', 'optimisticLockVersion': 1600847799000, 'orderNum': None, 'originalPrice': None, 'price': 800, 'purpose': '消化道疾病尤其是小肠疾病诊断的首选方法顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶踩踩踩踩踩踩踩踩踩', 'reason': '检查过程中无需麻醉、不需住院，行动自如，不耽误正常的工作和生活；舒适检查手段无痛无创，满足耐受性较差的人群查病，提高诊断胃肠道疾病准确率，对小肠都能进行检查。', 'salePrice': 2.0, 'specialRemark': None, 'standardItemDesc': '哇哇哇哇哇哇哇哇哇哇哇哇下踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩踩顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶', 'standardItemId': 500, 'standardItemName': '智能胶囊内窥镜检测', 'standardItemNotice': '1.医生评估能否适合做该项检查。\n2.消化道不通畅的患者，进行胶囊内镜检查时要慎重，如经检查证实或怀疑患有消化道畸形、胃肠道梗阻、消化道穿孔、消化道狭窄或瘘管者禁做；对高分子材料过敏者禁做以及其他医生诊断不建议做者禁做。\n', 'standardItemPurpose': '消化道疾病尤其是小肠疾病诊断的首选方法顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶顶踩踩踩踩踩踩踩踩踩', 'stationId': 'HL99998', 'tagName': '胃部疾病检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '总胆固醇、甘油三酯、高密度脂蛋白胆固醇、低密度脂蛋白胆固醇、测定血清中血脂含量，它们的增高或降低与动脉粥样硬化的形成有很大的关系。', 'discount': 0.1, 'gender': 0, 'id': 102932, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'WK0001', 'itemTagId': 7, 'name': '外科检查', 'notice': '1.一般最合适的时间是在当月月经结束后的3-7天内。2.妇科常规检查当日应穿着便于检查的衣服，长度适中的裙子是最好的选择。3.妇科常规检查的前一天晚上洗澡要选择淋浴，检查前24小时内不能洗阴道内部。4.检查前一晚避免性生活，不使用任何阴道药物', 'optimisticLockId': '102932', 'optimisticLockVersion': 1600760522000, 'orderNum': None, 'originalPrice': 111.0, 'price': 500, 'purpose': '检查子宫大小位置有无异常，看阴道黏膜表面是否光滑，白带是否异常有无病原体，宫颈上有没有肿物、溃疡、糜烂、息肉等', 'reason': '推荐理由', 'salePrice': 100.0, 'specialRemark': None, 'standardItemDesc': '总胆固醇、甘油三酯、高密度脂蛋白胆固醇、低密度脂蛋白胆固醇、测定血清中血脂含量，它们的增高或降低与动脉粥样硬化的形成有很大的关系。', 'standardItemId': 37, 'standardItemName': '血脂四项', 'standardItemNotice': '1.一般最合适的时间是在当月月经结束后的3-7天内。2.妇科常规检查当日应穿着便于检查的衣服，长度适中的裙子是最好的选择。3.妇科常规检查的前一天晚上洗澡要选择淋浴，检查前24小时内不能洗阴道内部。4.检查前一晚避免性生活，不使用任何阴道药物', 'standardItemPurpose': '检查子宫大小位置有无异常，看阴道黏膜表面是否光滑，白带是否异常有无病原体，宫颈上有没有肿物、溃疡、糜烂、息肉等', 'stationId': 'HL99998', 'tagName': '肿瘤生化'}, {'addFrom': 0, 'canAdd': 1, 'desc': '肾功能评价，测定肾功能损害程度及估计预后；血尿酸增高对高尿酸血症、痛风有诊断意义。肾功能不全出现肌酐升高', 'discount': None, 'gender': 0, 'id': 102934, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'WG0002', 'itemTagId': 3, 'name': '耳鼻喉科检查', 'notice': '1.有相关疾病提前告知，检查时积极配合医生完成检查时操作；2.避免精神紧张与压力', 'optimisticLockId': '102934', 'optimisticLockVersion': 1599546857000, 'orderNum': None, 'originalPrice': None, 'price': 800, 'purpose': '对耳、鼻、喉、咽的常规性检查', 'reason': '推荐理由', 'salePrice': 0.01, 'specialRemark': None, 'standardItemDesc': '肾功能评价，测定肾功能损害程度及估计预后；血尿酸增高对高尿酸血症、痛风有诊断意义。肾功能不全出现肌酐升高', 'standardItemId': 33, 'standardItemName': '尿素氮(BUN)、肌酐(Cr)、尿酸(UA)', 'standardItemNotice': '1.有相关疾病提前告知，检查时积极配合医生完成检查时操作；2.避免精神紧张与压力', 'standardItemPurpose': '对耳、鼻、喉、咽的常规性检查', 'stationId': 'HL99998', 'tagName': '心胸肺及腰椎'}, {'addFrom': 0, 'canAdd': 1, 'desc': '', 'discount': 0.9, 'gender': 0, 'id': 102935, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'HY0039', 'itemTagId': 12, 'name': '血HCG', 'notice': '检前几天清淡饮食，空腹检查，采血前禁食12小时', 'optimisticLockId': '102935', 'optimisticLockVersion': 1605852490000, 'orderNum': None, 'originalPrice': 0.0, 'price': 3300, 'purpose': '早孕诊断以及与HCG相关性疾病的诊断', 'reason': '早孕的血液学诊断，也是某些疾病的辅助判断项目。', 'salePrice': 0.02, 'specialRemark': None, 'standardItemDesc': '', 'standardItemId': 772, 'standardItemName': '血HCG', 'standardItemNotice': '检前几天清淡饮食，空腹检查，采血前禁食12小时', 'standardItemPurpose': '早孕诊断以及与HCG相关性疾病的诊断', 'stationId': 'HL99998', 'tagName': '女性检查'}, {'addFrom': 0, 'canAdd': 1, 'desc': '妇科的常见病原体有细菌、病毒、真菌、寄生虫等广泛的存在于泌尿生殖道中，感染引起阴道炎症。常见的感染病原体：真菌（白色念珠菌）、毛滴虫、HPV等，阴道炎还有可能是其他的病原体如支原体感染所致，如解脲支原体、沙眼衣原体、抗生殖支原体等。', 'discount': None, 'gender': 2, 'id': 102936, 'isAdd': 1, 'isHospitalIntroUsed': 1, 'isLimosis': False, 'isUrine': False, 'itemId': 'FK00001', 'itemTagId': 12, 'name': '妇科检查', 'notice': '1.检查前一天要避免性生活，避免影响检查结果；2.必检经期进行检查，并选择最佳的检查时间；3.计划检查前24～48小时内不要冲洗阴道或使用置入阴道的栓剂，也不要进行阴道内诊检查。', 'optimisticLockId': '102936', 'optimisticLockVersion': 1601193171000, 'orderNum': None, 'originalPrice': 99.0, 'price': 2000, 'purpose': '妇科疾病是否由病原体感染。', 'reason': '妇科疾病严重者会引起不孕不育，重视妇科检查，行早发现早治疗原则。', 'salePrice': 0.01, 'specialRemark': None, 'standardItemDesc': '妇科的常见病原体有细菌、病毒、真菌、寄生虫等广泛的存在于泌尿生殖道中，感染引起阴道炎症。常见的感染病原体：真菌（白色念珠菌）、毛滴虫、HPV等，阴道炎还有可能是其他的病原体如支原体感染所致，如解脲支原体、沙眼衣原体、抗生殖支原体等。', 'standardItemId': 863, 'standardItemName': '妇科病原体检查', 'standardItemNotice': '1.检查前一天要避免性生活，避免影响检查结果；2.必检经期进行检查，并选择最佳的检查时间；3.计划检查前24～48小时内不要冲洗阴道或使用置入阴道的栓剂，也不要进行阴道内诊检查。', 'standardItemPurpose': '妇科疾病是否由病原体感染。', 'stationId': 'HL99998', 'tagName': '女性检查'}], 'total': 174}</t>
-  </si>
-  <si>
-    <t>【项目管理】2-时间戳一致-医院体检项目-编辑医院体检项-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"体检列表"}</t>
-  </si>
-  <si>
-    <t>/admin/item/examHospital/update</t>
-  </si>
-  <si>
-    <t>{"name":"尿常规","standardItemName":"尿常规","tcLoading":'false',"standardItemId":106,"canAdd":1,"desc":"尿常规是医学检验“三大常规”项目之一，通过对尿液成分、形状等进行分析，用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能，还可用于协助检查其他系统疾病，如糖尿病、高血压、肝炎等。","purpose":"用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能等","notice":"1.尽量留取晨尿，留取时需选择中段尿（10ml以上)\n2.女性月经期及其前后3-5天一般不宜留取尿液送检，以免经血混入小便，造成血尿的假象；\n3.尿液留取后需尽快送实验室检查；\n4.检测前一天应当避免同房、剧烈运动等；前一天晚上8点后避免大量进食、饮水。\n5. 检测前不要使用抗菌药物，以免影响检查结果的准确性。","isAdd":1,"salePrice":6,"originalPrice":'',"price":600,"discount":1,"id":102926,"itemId":"HY0002","reason":"检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能等","stationId":"HL99998","gender":0,"specialRemark":"尿常规尿常规尿常规尿常规eeeee11111111","addFrom":0,"isHospitalIntroUsed":1,"isLimosis":'false',"isUrine":'false',"itemTagId":18,"orderNum":'',"standardItemDesc":"尿常规是医学检验“三大常规”项目之一，通过对尿液成分、形状等进行分析，用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能，还可用于协助检查其他系统疾病，如糖尿病、高血压、肝炎等。","standardItemNotice":"1.尽量留取晨尿，留取时需选择中段尿（10ml以上)\n2.女性月经期及其前后3-5天一般不宜留取尿液送检，以免经血混入小便，造成血尿的假象；\n3.尿液留取后需尽快送实验室检查；\n4.检测前一天应当避免同房、剧烈运动等；前一天晚上8点后避免大量进食、饮水。\n5. 检测前不要使用抗菌药物，以免影响检查结果的准确性。","standardItemPurpose":"用于检查泌尿系统疾病，如泌尿系统感染、肿瘤、结石及了解肾功能等","tagName":"必选检查","selected":'false'}</t>
-  </si>
-  <si>
-    <t>【项目管理】3-时间戳不一致-医院体检项目-编辑医院体检项-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"体检列表","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【项目管理】4-时间戳不一致-医院体检项目-编辑医院体检项-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"体检列表","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【订单管理】1-正常-收款订单-对账后台信息-成功</t>
-  </si>
-  <si>
-    <t>/admin/behalf/detail</t>
-  </si>
-  <si>
-    <t>{'orderId':'HjkBehalf20201116161217719'}</t>
-  </si>
-  <si>
-    <t>{'optimisticLockId': 'HjkBehalf20201116161217719', 'optimisticLockVersion': 1605526265000, 'orderId': 'HjkBehalf20201116161217719', 'payType': 1, 'restRefundMoney': '29.98'}</t>
-  </si>
-  <si>
-    <t>【订单管理】2-时间戳一致-收款订单-代收付退款-用户a页面1保存-成功</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"对账后台"}</t>
-  </si>
-  <si>
-    <t>/admin/behalf/refund</t>
-  </si>
-  <si>
-    <t>{"adminId":"801","money":"0.01","orderId":"HjkBehalf20201116161217719","refundReason":"体检项目多买、错买，不想要"}</t>
-  </si>
-  <si>
-    <t>【订单管理】3-时间戳不一致-收款订单-代收付退款-用户a页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"对账后台","cxfaid":"不同"}</t>
-  </si>
-  <si>
-    <t>【订单管理】1-时间戳不一致-收款订单-代收付退款-用户b页面2时间戳1保存-失败</t>
-  </si>
-  <si>
-    <t>{"env": 1,"cxfa":"对账后台","cxfaid":"不同","phone":"15990106283"}</t>
-  </si>
-  <si>
-    <t>【体检预约】1-性别不限个检套餐-科学体检选择性别男-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>/wx/api/examination/addition/cohortRecommendItems</t>
-  </si>
-  <si>
-    <t>{"age":"30","cardNo":"","sex":1,"married":1,"mobile":"","useType":0,"userCardId":"","userId":17200000312,"pkgId":2560,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>{'enablePkgUpgradeTxtShow': 1, 'enableSurveyQuestion': 1, 'examItemList': [{'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'MR0010', 'itemName': '1.0右膝关节核磁', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '饮食不规律已经是很多的人常态，在胃癌高发时代，多关注胃部健康非常有意义。', 'recommend': None, 'recommendIndex': 1, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 3428, 'spuId': 3399, 'standardItemId': 720, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00005', 'itemName': '双侧甲状腺彩超', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '准确度和灵敏度高，可有效排查甲状腺肿瘤、结节、肿大、炎症等。', 'recommend': None, 'recommendIndex': 2, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14615, 'spuId': 14572, 'standardItemId': 60, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'HY0017', 'itemName': '血型', 'itemTagId': 17, 'itemTagName': '特色检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '能确保自己的医疗安全，如输血、器官移植选择供体等。', 'recommend': None, 'recommendIndex': 3, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14626, 'spuId': 14583, 'standardItemId': 109, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CT00008', 'itemName': '甲状腺双源CT', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '可早期发现甲亢、甲减等疾病，检查敏感度、准确性高。', 'recommend': None, 'recommendIndex': 4, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14628, 'spuId': 14585, 'standardItemId': 1154, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 1, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00010', 'itemName': '心脏彩超（中心)', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '200', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 200.0, 'reason': '心电图反应心脏电生理情况，心脏彩超反应心脏结构以及功能，两者侧重点不一样', 'recommend': None, 'recommendIndex': 5, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '200', 'skuId': 11077, 'spuId': 11040, 'standardItemId': 59, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'ZL0002', 'itemName': '癌胚抗原CEA', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '1.02', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 1.02, 'reason': '同型半胱氨酸是一项重要的人体健康指标，心脑血管发病风险的检测', 'recommend': None, 'recommendIndex': 6, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '1.02', 'skuId': 10416, 'spuId': 10379, 'standardItemId': 675, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'WYM0001', 'itemName': 'C13呼气试验(空腹)', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '3', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 3.0, 'reason': '胃功能检查简便、快速，避免了X-射线对人体的侵害和胃镜的不便', 'recommend': None, 'recommendIndex': 7, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '3', 'skuId': 10774, 'spuId': 10737, 'standardItemId': 678, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 1, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'XZ0002', 'itemName': '426新增项目2', 'itemTagId': 21, 'itemTagName': '传染病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '检查肝功能的目的在于探测肝脏有无疾病，肝脏损害程度以及查明肝病原因', 'recommend': None, 'recommendIndex': 8, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 10518, 'spuId': 10481, 'standardItemId': 672, 'stationId': 'HL99998'}], 'percent': 0, 'pkgUpgradeTxt': '30岁人群工作压力大，熬夜、饮食不规律等，患病风险逐渐年轻化，需要重点关注“颈椎疾病”、“胃部疾病”和“甲状腺疾病”及女性“宫颈癌”筛查。', 'policy': '4'}</t>
-  </si>
-  <si>
-    <t>微信+医院回归用例</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别不限个检套餐-科学体检选择性别男-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14626,"count":1},{"goodsSkuId":10335,"count":1},{"goodsSkuId":14676,"count":1}],"packDpList":[],"tradeGroupCardBindType":"0","userCardId":"","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': None, 'couponAmountStr': '0', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '血型', 'goodsPriceStr': '10', 'skuId': 14626, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（男性）', 'goodsPriceStr': '0.01', 'skuId': 10335, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '自动化性别不限（勿动）', 'goodsPriceStr': '0.01', 'skuId': 14676, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 3, 'deductValue': None, 'deductValueStr': None, 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': None}, 'payAmount': '10.02', 'payAmountStr': '10.02', 'selfDiscountAmountStr': '0', 'selfDiscountStr': None, 'totalAmountStr': '10.02', 'tradeCalculateGroupCardBo': None, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '自动化性别不限（勿动）等3项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【体检预约】3-性别不限个检套餐-科学体检选择性别男-预约女身份证提交订单-失败</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "skuId": 14676, "optionalItemSkuIds":10335}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select user_id,reserve_id from trade_examination_reserve where  user_id=%s ORDER BY create_time desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":1}</t>
-  </si>
-  <si>
-    <t>【体检预约】4-性别不限个检套餐-科学体检选择性别男-预约男身份证提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14626,"count":1},{"goodsSkuId":10335,"count":1},{"goodsSkuId":14676,"count":1}],"packDpList":[],"payAmount":"10.02","tradeChannel":2,"ext":"{\"groupUserCardId\":\"\",\"tradeGroupCardBindType\":\"0\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"30\",\"gender\":1,\"realName\":\"自动化连连\",\"reserveTime\":1637251200000,\"examSuitPkgId\":null,\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12607, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112015342623015', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【体检预约】5-性别不限个检套餐-科学体检选择性别男-订单支付-成功</t>
-  </si>
-  <si>
-    <t>{'sql':1}</t>
-  </si>
-  <si>
-    <t>/app/market/trade/test/notifySuccess</t>
-  </si>
-  <si>
-    <t>{'tradeId':'TJTC2020111916140946146','payType':0,"thirdpartTradeId":"SUB2020111916140946581"}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select user_id,trade_id,sub_trade_id from trade_examination_reserve where  user_id=%s ORDER BY create_time desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":3}</t>
-  </si>
-  <si>
-    <t>【体检预约】6-性别不限个检套餐-科学体检选择性别男-修改预约女身份证提交订单-失败</t>
-  </si>
-  <si>
-    <t>/app/market/reserve/isCardNoMatchSupportInfo</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "reserveId": 12578}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>【体检预约】7-性别不限个检套餐-科学体检选择性别男-修改预约男身份证提交订单-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003075314, "reserveId": 12578}</t>
-  </si>
-  <si>
-    <t>【体检预约】1-性别不限个检套餐-科学体检选择性别女-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"30","cardNo":"","sex":2,"married":1,"mobile":"","useType":0,"userCardId":"","userId":17200000312,"pkgId":2612,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>{'enablePkgUpgradeTxtShow': 1, 'enableSurveyQuestion': 1, 'examItemList': [{'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'MR0010', 'itemName': '1.0右膝关节核磁', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '饮食不规律已经是很多的人常态，在胃癌高发时代，多关注胃部健康非常有意义。', 'recommend': None, 'recommendIndex': 1, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 3428, 'spuId': 3399, 'standardItemId': 720, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'XZ0007', 'itemName': 'ceshi', 'itemTagId': 12, 'itemTagName': '女性检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '系统的外科检查可以早期发现一些病症：如甲状腺结节、骨质增生、前列腺肥大、乳腺增生及腺瘤、直肠息肉等', 'recommend': None, 'recommendIndex': 2, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 10391, 'spuId': 10354, 'standardItemId': 686, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CT00008', 'itemName': '甲状腺双源CT', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '可早期发现甲亢、甲减等疾病，检查敏感度、准确性高。', 'recommend': None, 'recommendIndex': 3, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14628, 'spuId': 14585, 'standardItemId': 1154, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00005', 'itemName': '双侧甲状腺彩超', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '准确度和灵敏度高，可有效排查甲状腺肿瘤、结节、肿大、炎症等。', 'recommend': None, 'recommendIndex': 4, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14615, 'spuId': 14572, 'standardItemId': 60, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'FM0005', 'itemName': '糖化血红蛋白（放免）', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '能对这段时间的血糖的平均水平进行评价', 'recommend': None, 'recommendIndex': 5, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 10754, 'spuId': 10717, 'standardItemId': 685, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00011', 'itemName': '颈部血管彩超（中心）1', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '222', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 222.0, 'reason': '冠心病、高血压病、脑卒中、脑出血、糖尿病等疾病年轻化，通过颈动脉彩超可以了解大脑供血情况，同时可以间接了解脑动脉及心脏的冠状动脉的血管条件，早预防早治疗，降低猝死率', 'recommend': None, 'recommendIndex': 6, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '222', 'skuId': 10776, 'spuId': 10739, 'standardItemId': 472, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'WYM0001', 'itemName': 'C13呼气试验(空腹)', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '3', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 3.0, 'reason': '胃功能检查简便、快速，避免了X-射线对人体的侵害和胃镜的不便', 'recommend': None, 'recommendIndex': 7, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '3', 'skuId': 10774, 'spuId': 10737, 'standardItemId': 678, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 2, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00006', 'itemName': '双侧乳腺彩超', 'itemTagId': 19, 'itemTagName': 'B超检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '100', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 100.0, 'reason': '筛查乳腺疾病，如乳腺癌、乳腺增生、乳腺结节等，女性必查。', 'recommend': None, 'recommendIndex': 8, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '100', 'skuId': 14629, 'spuId': 14586, 'standardItemId': 61, 'stationId': 'HL99998'}], 'percent': 0, 'pkgUpgradeTxt': '30岁人群工作压力大，熬夜、饮食不规律等，患病风险逐渐年轻化，需要重点关注“颈椎疾病”、“胃部疾病”和“甲状腺疾病”及女性“宫颈癌”筛查。', 'policy': '4'}</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别不限个检套餐-科学体检选择性别女-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14626,"count":1},{"goodsSkuId":10957,"count":1},{"goodsSkuId":14676,"count":1}],"packDpList":[],"tradeGroupCardBindType":"0","userCardId":"","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': None, 'couponAmountStr': '0', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '血型', 'goodsPriceStr': '10', 'skuId': 14626, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（女性）中心', 'goodsPriceStr': '6.5', 'skuId': 10957, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '自动化性别不限（勿动）', 'goodsPriceStr': '0.01', 'skuId': 14676, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 3, 'deductValue': None, 'deductValueStr': None, 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': None}, 'payAmount': '16.51', 'payAmountStr': '16.51', 'selfDiscountAmountStr': '0', 'selfDiscountStr': None, 'totalAmountStr': '16.51', 'tradeCalculateGroupCardBo': None, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '自动化性别不限（勿动）等3项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【体检预约】3-性别不限个检套餐-科学体检选择性别女-预约女身份证提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14626,"count":1},{"goodsSkuId":10957,"count":1},{"goodsSkuId":14676,"count":1}],"packDpList":[],"payAmount":"16.51","tradeChannel":2,"ext":"{\"groupUserCardId\":\"\",\"tradeGroupCardBindType\":\"0\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003072623\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"30\",\"gender\":2,\"realName\":\"接口自动化连连女\",\"reserveTime\":1637251200000,\"examSuitPkgId\":null,\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12608, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112015343171877', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【体检预约】4-性别不限个检套餐-科学体检选择性别女-订单支付-成功</t>
-  </si>
-  <si>
-    <t>{'tradeId':'TJTC2020111919101113159','payType':0,"thirdpartTradeId":"SUB2020111919101113453"}</t>
-  </si>
-  <si>
-    <t>【体检预约】5-性别不限个检套餐-科学体检选择性别女-修改预约男身份证提交订单-失败</t>
-  </si>
-  <si>
-    <t>【体检预约】1-性别男个检套餐-科学体检选择性别男-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"30","cardNo":"","sex":1,"married":1,"mobile":"","useType":0,"userCardId":"","userId":17200000312,"pkgId":2613,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别男个检套餐-科学体检选择性别男-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14626,"count":1},{"goodsSkuId":10335,"count":1},{"goodsSkuId":14677,"count":1}],"packDpList":[],"tradeGroupCardBindType":"0","userCardId":"","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': None, 'couponAmountStr': '0', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '血型', 'goodsPriceStr': '10', 'skuId': 14626, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（男性）', 'goodsPriceStr': '0.01', 'skuId': 10335, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '自动化套餐升级男（勿动）', 'goodsPriceStr': '0.01', 'skuId': 14677, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 3, 'deductValue': None, 'deductValueStr': None, 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': None}, 'payAmount': '10.02', 'payAmountStr': '10.02', 'selfDiscountAmountStr': '0', 'selfDiscountStr': None, 'totalAmountStr': '10.02', 'tradeCalculateGroupCardBo': None, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '自动化套餐升级男（勿动）等3项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【体检预约】3-性别男个检套餐-科学体检选择性别男-预约女身份证提交订单-失败</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "skuId": 14676, "optionalItemSkuIds":"14626,10335"}</t>
-  </si>
-  <si>
-    <t>【体检预约】4-性别男个检套餐-科学体检选择性别男-预约男身份证提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14626,"count":1},{"goodsSkuId":14677,"count":1}],"packDpList":[],"payAmount":"10.02","tradeChannel":2,"ext":"{\"groupUserCardId\":\"\",\"tradeGroupCardBindType\":\"0\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"30\",\"gender\":1,\"realName\":\"自动化连连\",\"reserveTime\":1637251200000,\"examSuitPkgId\":null,\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12609, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112015343696063', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【体检预约】5-性别男个检套餐-科学体检选择性别男-订单支付-成功</t>
-  </si>
-  <si>
-    <t>【体检预约】6-性别男个检套餐-科学体检选择性别男-修改预约男身份证提交订单-成功</t>
-  </si>
-  <si>
-    <t>【体检预约】1-性别男身份证非必填套餐-科学体检选择性别男-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"30","cardNo":"","sex":1,"married":1,"mobile":"","useType":0,"userCardId":"","userId":17200000312,"pkgId":2620,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别男身份证非必填套餐-科学体检选择性别男-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14626,"count":1},{"goodsSkuId":14686,"count":1}],"packDpList":[],"tradeGroupCardBindType":"0","userCardId":"","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': None, 'couponAmountStr': '0', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（男性）', 'goodsPriceStr': '0.01', 'skuId': 10335, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '血型', 'goodsPriceStr': '10', 'skuId': 14626, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '自动化身份非必填男（勿动）', 'goodsPriceStr': '0.01', 'skuId': 14686, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 3, 'deductValue': None, 'deductValueStr': None, 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': None}, 'payAmount': '10.02', 'payAmountStr': '10.02', 'selfDiscountAmountStr': '0', 'selfDiscountStr': None, 'totalAmountStr': '10.02', 'tradeCalculateGroupCardBo': None, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '自动化身份非必填男（勿动）等3项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【体检预约】3-性别男身份证非必填套餐-科学体检选择性别男-预约女性提交订单-失败</t>
-  </si>
-  <si>
-    <t>{'gender':2, 'cardNo':"", "skuId": 14686, "optionalItemSkuIds":"10335,14626"}</t>
-  </si>
-  <si>
-    <t>【体检预约】4-性别男身份证非必填套餐-科学体检选择性别男-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14626,"count":1},{"goodsSkuId":14686,"count":1}],"packDpList":[],"payAmount":"10.02","tradeChannel":2,"ext":"{\"groupUserCardId\":\"\",\"tradeGroupCardBindType\":\"0\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"30\",\"gender\":1,\"realName\":\"自动化连连\",\"reserveTime\":1637251200000,\"examSuitPkgId\":null,\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12721, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316481788108', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【体检预约】5-性别男身份证非必填套餐-科学体检选择性别男-订单支付-成功</t>
-  </si>
-  <si>
-    <t>【体检预约】6-性别男身份证非必填套餐-科学体检选择性别男-修改预约女性提交订单-成功</t>
-  </si>
-  <si>
-    <t>/app/market/reserve/isCardNoMatchSupportInfoV2</t>
-  </si>
-  <si>
-    <t>{'gender':2, 'cardNo':"", "reserveId": 12578}</t>
-  </si>
-  <si>
-    <t>【体检预约】6-性别男身份证非必填套餐-科学体检选择性别男-修改预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':"", "reserveId": 12578}</t>
-  </si>
-  <si>
-    <t>【体检预约】1-性别不限身份证非必填套餐-科学体检选择性别男-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"30","cardNo":"","sex":1,"married":1,"mobile":"","useType":0,"userCardId":"","userId":17200000312,"pkgId":2621,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别不限身份证非必填套餐-科学体检选择性别男-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14626,"count":1},{"goodsSkuId":14687,"count":1}],"packDpList":[],"tradeGroupCardBindType":"0","userCardId":"","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': None, 'couponAmountStr': '0', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（男性）', 'goodsPriceStr': '0.01', 'skuId': 10335, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '血型', 'goodsPriceStr': '10', 'skuId': 14626, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '自动化性别不限身份非必填（勿动）', 'goodsPriceStr': '0.01', 'skuId': 14687, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 3, 'deductValue': None, 'deductValueStr': None, 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': None}, 'payAmount': '10.02', 'payAmountStr': '10.02', 'selfDiscountAmountStr': '0', 'selfDiscountStr': None, 'totalAmountStr': '10.02', 'tradeCalculateGroupCardBo': None, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '自动化性别不限身份非必填（勿动）等3项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【体检预约】3-性别不限身份证非必填套餐-科学体检选择性别男-预约女性提交订单-失败</t>
-  </si>
-  <si>
-    <t>{'gender':2, 'cardNo':"", "skuId": 14687, "optionalItemSkuIds":"10335,14626"}</t>
-  </si>
-  <si>
-    <t>【体检预约】4-性别不限身份证非必填套餐-科学体检选择性别男-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14626,"count":1},{"goodsSkuId":14687,"count":1}],"packDpList":[],"payAmount":"10.02","tradeChannel":2,"ext":"{\"groupUserCardId\":\"\",\"tradeGroupCardBindType\":\"0\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"30\",\"gender\":1,\"realName\":\"自动化连连\",\"reserveTime\":1637251200000,\"examSuitPkgId\":null,\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12722, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316482217474', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【体检预约】5-性别不限身份证非必填套餐-科学体检选择性别男-订单支付-成功</t>
-  </si>
-  <si>
-    <t>【体检预约】6-性别不限身份证非必填套餐-科学体检选择性别男-修改预约女性提交订单-成功</t>
-  </si>
-  <si>
-    <t>【体检预约】1-性别不限身份证非必填套餐-直接下单-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14687,"count":1}],"packDpList":[],"tradeGroupCardBindType":"0","userCardId":"","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': None, 'couponAmountStr': '0', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '自动化性别不限身份非必填（勿动）', 'goodsPriceStr': '0.01', 'skuId': 14687, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 3, 'deductValue': None, 'deductValueStr': None, 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': None}, 'payAmount': '0.01', 'payAmountStr': '0.01', 'selfDiscountAmountStr': '0', 'selfDiscountStr': None, 'totalAmountStr': '0.01', 'tradeCalculateGroupCardBo': None, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '自动化性别不限身份非必填（勿动）', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别不限身份证非必填套餐-直接下单-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14687,"count":1}],"packDpList":[],"payAmount":"0.01","tradeChannel":2,"ext":"{\"groupUserCardId\":\"\",\"tradeGroupCardBindType\":\"0\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"30\",\"gender\":1,\"realName\":\"自动化连连\",\"reserveTime\":1637251200000,\"examSuitPkgId\":null,\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12723, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316482509591', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【体检预约】3-性别不限身份证非必填套餐-直接下单-订单支付-成功</t>
-  </si>
-  <si>
-    <t>【体检预约】2-性别不限身份证非必填套餐-直接下单-修改预约女性提交订单-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】1-绑定性别不限团检卡(新)-成功</t>
-  </si>
-  <si>
-    <t>{"batchId":"2758","companyId":"2768","idNumber":"","isnew":"1","phone":"","userName":"小七1"}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select batch_id, user_name from hospital_user_card_upload where status=1 and batch_id=%s and bind_user_id is NULL;", "condition": "2758", "code": 0,'result':2758,"sql":0}</t>
-  </si>
-  <si>
-    <t>{'cardType': 3, 'reserveCardId': 3459, 'stationId': 'HL99998', 'userCardId': 36663}</t>
-  </si>
-  <si>
-    <t>【团检预约】2-绑定性别不限团检卡(新)-团检卡预约验证-成功</t>
-  </si>
-  <si>
-    <t>{'userCardId':36655, 'spuId':14531, "reserveDay": 1637337600000, 'intervalId':1041, 'tradeGroupCardBindType':1, 'branchId':''}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select bind_user_id, user_card_id from hospital_user_card_upload where batch_id=2758 and bind_user_id=%s ORDER BY user_card_id desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":1}</t>
-  </si>
-  <si>
-    <t>【团检预约】3-绑定性别不限团检卡(新)-性别男身份证预约验证-成功</t>
-  </si>
-  <si>
-    <t>{'cardNo':"110101199003075314", "skuId": 14569, "optionalItemSkuIds":""}</t>
-  </si>
-  <si>
-    <t>【团检预约】4-绑定性别不限团检卡(新)-性别男身份证预约-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14569,"count":1}],"packDpList":[],"tradeGroupCardBindType":"1","userCardId":"36655","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': '', 'couponAmountStr': '1', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '团检不限', 'goodsPriceStr': '2', 'skuId': 14569, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 1, 'deductValue': 1.0, 'deductValueStr': '1', 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': 1303}, 'payAmount': '1', 'payAmountStr': '1', 'selfDiscountAmountStr': '0', 'selfDiscountStr': '', 'totalAmountStr': '2', 'tradeCalculateGroupCardBo': {'cardType': 3, 'groupCardId': 36655}, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '团检不限', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【团检预约】5-绑定性别不限团检卡(新)-性别男身份证预约-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14569,"count":1}],"packDpList":[],"payAmount":"0","tradeChannel":2,"ext":"{\"groupUserCardId\":\"36655\",\"tradeGroupCardBindType\":\"1\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"\",\"gender\":\"\",\"realName\":\"小七1\",\"reserveTime\":1637337600000,\"examSuitPkgId\":'',\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select bind_user_id, user_card_id from hospital_user_card_upload where batch_id=2758 and bind_user_id=%s ORDER BY user_card_id desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":4}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 0, 'reportReserveTime': None, 'reserveId': 12724, 'reserveType': 2, 'reserveUrl': 'http://management-fed-gray.helianhealth.com/envk8s//mall/appointmentinfo.html?rid=12724', 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316483010741', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【团检预约】6-绑定性别不限团检卡(新)-性别男身份证预约-修改性别女验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】7-绑定性别不限团检卡(新)-性别男身份证预约-修改性别男验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】8-绑定性别不限团检卡(新)-性别男身份证预约-修改性别女预约-成功</t>
-  </si>
-  <si>
-    <t>{"reserveId":"12645","reserveTime":1637337600000,"intervalId":1041,"married":1,"mobile":"","cardNo":"110101199003072623","gender":1,"age":30,"realName":"小七1","branchId":""}</t>
-  </si>
-  <si>
-    <t>【团检预约】1-绑定性别不限团检卡(新)-男性加项-成功</t>
-  </si>
-  <si>
-    <t>{'cardType': 3, 'reserveCardId': 3459, 'stationId': 'HL99998', 'userCardId': 36664}</t>
-  </si>
-  <si>
-    <t>【团检预约】2-绑定性别不限团检卡(新)-男性加项-团检卡预约验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】3-绑定性别不限团检卡(新)-男性加项-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"","cardNo":"110101199003075314","sex":"","married":1,"mobile":"17681829051","useType":"1","userCardId":"36656","userId":17200000312,"pkgId":2528,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>{'enablePkgUpgradeTxtShow': 1, 'enableSurveyQuestion': 1, 'examItemList': [{'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': 1.0, 'itemId': 'MR0010', 'itemName': '1.0右膝关节核磁', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '饮食不规律已经是很多的人常态，在胃癌高发时代，多关注胃部健康非常有意义。', 'recommend': None, 'recommendIndex': 1, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 3428, 'spuId': 3399, 'standardItemId': 720, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00005', 'itemName': '双侧甲状腺彩超', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '准确度和灵敏度高，可有效排查甲状腺肿瘤、结节、肿大、炎症等。', 'recommend': None, 'recommendIndex': 2, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14615, 'spuId': 14572, 'standardItemId': 60, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'HY0017', 'itemName': '血型', 'itemTagId': 17, 'itemTagName': '特色检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '能确保自己的医疗安全，如输血、器官移植选择供体等。', 'recommend': None, 'recommendIndex': 3, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14626, 'spuId': 14583, 'standardItemId': 109, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '0.2', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': True, 'isLimosis': None, 'isUrine': None, 'itemDiscount': 0.2, 'itemId': 'CT00008', 'itemName': '甲状腺双源CT', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '可早期发现甲亢、甲减等疾病，检查敏感度、准确性高。', 'recommend': None, 'recommendIndex': 4, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '2', 'skuId': 14628, 'spuId': 14585, 'standardItemId': 1154, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 1, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00010', 'itemName': '心脏彩超（中心)', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '200', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 200.0, 'reason': '心电图反应心脏电生理情况，心脏彩超反应心脏结构以及功能，两者侧重点不一样', 'recommend': None, 'recommendIndex': 5, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '200', 'skuId': 11077, 'spuId': 11040, 'standardItemId': 59, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'ZL0002', 'itemName': '癌胚抗原CEA', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '1.02', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 1.02, 'reason': '同型半胱氨酸是一项重要的人体健康指标，心脑血管发病风险的检测', 'recommend': None, 'recommendIndex': 6, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '1.02', 'skuId': 10416, 'spuId': 10379, 'standardItemId': 675, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'WYM0001', 'itemName': 'C13呼气试验(空腹)', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '3', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 3.0, 'reason': '胃功能检查简便、快速，避免了X-射线对人体的侵害和胃镜的不便', 'recommend': None, 'recommendIndex': 7, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '3', 'skuId': 10774, 'spuId': 10737, 'standardItemId': 678, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 1, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'XZ0002', 'itemName': '426新增项目2', 'itemTagId': 21, 'itemTagName': '传染病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '检查肝功能的目的在于探测肝脏有无疾病，肝脏损害程度以及查明肝病原因', 'recommend': None, 'recommendIndex': 8, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 10518, 'spuId': 10481, 'standardItemId': 672, 'stationId': 'HL99998'}], 'percent': 0, 'pkgUpgradeTxt': '30岁人群工作压力大，熬夜、饮食不规律等，患病风险逐渐年轻化，需要重点关注“颈椎疾病”、“胃部疾病”和“甲状腺疾病”及女性“宫颈癌”筛查。', 'policy': '4'}</t>
-  </si>
-  <si>
-    <t>【团检预约】4-绑定性别不限团检卡(新)-男性加项泌尿男彩超-预约男性验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】5-绑定性别不限团检卡(新)-男性加项泌尿男彩超-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14569,"count":1}],"packDpList":[],"tradeGroupCardBindType":"1","userCardId":"36656","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': '', 'couponAmountStr': '1', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（男性）', 'goodsPriceStr': '0.01', 'skuId': 10335, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '团检不限', 'goodsPriceStr': '2', 'skuId': 14569, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 1, 'deductValue': 1.0, 'deductValueStr': '1', 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': 1303}, 'payAmount': '1.01', 'payAmountStr': '1.01', 'selfDiscountAmountStr': '0', 'selfDiscountStr': '', 'totalAmountStr': '2.01', 'tradeCalculateGroupCardBo': {'cardType': 3, 'groupCardId': 36656}, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '团检不限等2项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【团检预约】6-绑定性别不限团检卡(新)-男性加项泌尿男彩超-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14569,"count":1}],"packDpList":[],"payAmount":"0.01","tradeChannel":2,"ext":"{\"groupUserCardId\":\"36656\",\"tradeGroupCardBindType\":\"1\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"\",\"gender\":\"\",\"realName\":\"小七2\",\"reserveTime\":1637337600000,\"examSuitPkgId\":'',\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12725, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316483512845', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【团检预约】7-绑定性别不限团检卡(新)-男性加项泌尿男彩超-订单支付-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】8-绑定性别不限团检卡(新)-男性加项泌尿男彩超-修改性别女预约-失败</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "reserveId": 12673}</t>
-  </si>
-  <si>
-    <t>【团检预约】9-绑定性别不限团检卡(新)-男性加项泌尿男彩超-修改性别男预约-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003075314, "reserveId": 12673}</t>
-  </si>
-  <si>
-    <t>【团检预约】1-绑定性别男团检卡(新)-成功</t>
-  </si>
-  <si>
-    <t>{"batchId":"2764","companyId":"2768","idNumber":"","isnew":"1","phone":"","userName":"小七1"}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select batch_id, user_name from hospital_user_card_upload where status=1 and batch_id=%s and bind_user_id is NULL;", "condition": "2764", "code": 0,'result':2764,"sql":0}</t>
-  </si>
-  <si>
-    <t>{'cardType': 3, 'reserveCardId': 3470, 'stationId': 'HL99998', 'userCardId': 38701}</t>
-  </si>
-  <si>
-    <t>【团检预约】2-绑定性别男团检卡(新)-预约性别女身份证-失败</t>
-  </si>
-  <si>
-    <t>{ 'cardNo':"110101199003072623", "skuId": 14587, "optionalItemSkuIds":""}</t>
-  </si>
-  <si>
-    <t>【团检预约】3-绑定性别男团检卡(新)-预约性别男身份证-成功</t>
-  </si>
-  <si>
-    <t>{ 'cardNo':"110101199003075314", "skuId": 14587, "optionalItemSkuIds":""}</t>
-  </si>
-  <si>
-    <t>【团检预约】4-绑定性别男团检卡(新)-预约性别男身份证-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14587,"count":1}],"packDpList":[],"tradeGroupCardBindType":"1","userCardId":"38696","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': '', 'couponAmountStr': '1', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '团检男', 'goodsPriceStr': '2.1', 'skuId': 14587, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 1, 'deductValue': 1.0, 'deductValueStr': '1', 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': 1303}, 'payAmount': '1.1', 'payAmountStr': '1.1', 'selfDiscountAmountStr': '0', 'selfDiscountStr': '', 'totalAmountStr': '2.1', 'tradeCalculateGroupCardBo': {'cardType': 3, 'groupCardId': 38696}, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '团检男', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【团检预约】5-绑定性别男团检卡(新)-预约性别男身份证-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14587,"count":1}],"packDpList":[],"payAmount":"0","tradeChannel":2,"ext":"{\"groupUserCardId\":\"38696\",\"tradeGroupCardBindType\":\"1\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"\",\"gender\":\"\",\"realName\":\"小七1\",\"reserveTime\":1637337600000,\"examSuitPkgId\":'',\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select bind_user_id, user_card_id from hospital_user_card_upload where batch_id=2764 and bind_user_id=%s ORDER BY user_card_id desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":4}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 0, 'reportReserveTime': None, 'reserveId': 12726, 'reserveType': 2, 'reserveUrl': 'http://management-fed-gray.helianhealth.com/envk8s//mall/appointmentinfo.html?rid=12726', 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316484008415', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【团检预约】6-绑定性别男团检卡(新)-预约性别男身份证-修改性别男预约验证-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003075314, "reserveId": 12684}</t>
-  </si>
-  <si>
-    <t>【团检预约】7-绑定性别男团检卡(新)-预约性别男身份证-修改性别男预约保存-成功</t>
-  </si>
-  <si>
-    <t>{"reserveId":"12684","reserveTime":1637337600000,"intervalId":1041,"married":1,"mobile":"","cardNo":"110101199003075314","gender":1,"age":30,"realName":"小七1","branchId":""}</t>
-  </si>
-  <si>
-    <t>【团检预约】1-绑定性别不限团检卡(老)-成功</t>
-  </si>
-  <si>
-    <t>{"batchId":"2773","companyId":"2771","idNumber":"","isnew":"1","phone":"","userName":"小七1"}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select batch_id, user_name from hospital_user_card_upload where status=1 and batch_id=%s and bind_user_id is NULL;", "condition": "2773", "code": 0,'result':2773,"sql":0}</t>
-  </si>
-  <si>
-    <t>{'cardType': 3, 'reserveCardId': 3492, 'stationId': 'HL99998', 'userCardId': 40780}</t>
-  </si>
-  <si>
-    <t>【团检预约】2-绑定性别不限团检卡(老)-是否走新推荐验证-成功</t>
-  </si>
-  <si>
-    <t>/wx/api/card/v2/isNewStrategy</t>
-  </si>
-  <si>
-    <t>{'userCardId':40771}</t>
-  </si>
-  <si>
-    <t>【团检预约】3-绑定性别不限团检卡(老)-性别男身份证预约验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】4-绑定性别不限团检卡(老)-性别男身份证预约-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14569,"count":1}],"packDpList":[],"tradeGroupCardBindType":"1","userCardId":"40771","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': '', 'couponAmountStr': '1', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '团检不限', 'goodsPriceStr': '2', 'skuId': 14569, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 1, 'deductValue': 1.0, 'deductValueStr': '1', 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': 1303}, 'payAmount': '1', 'payAmountStr': '1', 'selfDiscountAmountStr': '0', 'selfDiscountStr': '', 'totalAmountStr': '2', 'tradeCalculateGroupCardBo': {'cardType': 3, 'groupCardId': 40771}, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '团检不限', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【团检预约】5-绑定性别不限团检卡(老)-性别男身份证预约-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14569,"count":1}],"packDpList":[],"payAmount":"0","tradeChannel":2,"ext":"{\"groupUserCardId\":\"40771\",\"tradeGroupCardBindType\":\"1\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"\",\"gender\":\"\",\"realName\":\"小七1\",\"reserveTime\":1637510400000,\"examSuitPkgId\":'',\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select bind_user_id, user_card_id from hospital_user_card_upload where batch_id=2773 and bind_user_id=%s ORDER BY user_card_id desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":4}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 0, 'reportReserveTime': None, 'reserveId': 12727, 'reserveType': 2, 'reserveUrl': 'http://management-fed-gray.helianhealth.com/envk8s//mall/appointmentinfo.html?rid=12727', 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316484397159', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【团检预约】6-绑定性别不限团检卡(老)-性别男身份证预约-修改性别女验证-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "reserveId": 12689}</t>
-  </si>
-  <si>
-    <t>【团检预约】7-绑定性别不限团检卡(老)-性别男身份证预约-修改性别男验证-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003075314, "reserveId": 12689}</t>
-  </si>
-  <si>
-    <t>【团检预约】8-绑定性别不限团检卡(老)-性别男身份证预约-修改性别女预约-成功</t>
-  </si>
-  <si>
-    <t>{"reserveId":"12689","reserveTime":1637510400000,"intervalId":1041,"married":1,"mobile":"","cardNo":"110101199003072623","gender":1,"age":30,"realName":"小七1","branchId":""}</t>
-  </si>
-  <si>
-    <t>【团检预约】1-绑定性别不限团检卡(老)-男性加项-成功</t>
-  </si>
-  <si>
-    <t>{'cardType': 3, 'reserveCardId': 3492, 'stationId': 'HL99998', 'userCardId': 40782}</t>
-  </si>
-  <si>
-    <t>【团检预约】2-绑定性别不限团检卡(老)-男性加项-是否走新推荐验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】3-绑定性别不限团检卡(老)-男性加项泌尿男彩超-预约男性验证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】4-绑定性别不限团检卡(老)-男性加项-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"","cardNo":"110101199003075314","sex":"","married":1,"mobile":"17681829051","useType":"1","userCardId":"40772","userId":17200000312,"pkgId":2528,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>【团检预约】5-绑定性别不限团检卡(老)-男性加项泌尿男彩超-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14569,"count":1}],"packDpList":[],"tradeGroupCardBindType":"1","userCardId":"40772","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': '', 'couponAmountStr': '1', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '泌尿系彩超（男性）', 'goodsPriceStr': '0.01', 'skuId': 10335, 'subType': 201, 'suitType': 0}, {'discountStr': '', 'goodsCount': 1, 'goodsName': '团检不限', 'goodsPriceStr': '2', 'skuId': 14569, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 1, 'deductValue': 1.0, 'deductValueStr': '1', 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': 1303}, 'payAmount': '1.01', 'payAmountStr': '1.01', 'selfDiscountAmountStr': '0', 'selfDiscountStr': '', 'totalAmountStr': '2.01', 'tradeCalculateGroupCardBo': {'cardType': 3, 'groupCardId': 40772}, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '团检不限等2项商品', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【团检预约】6-绑定性别不限团检卡(老)-男性加项泌尿男彩超-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":10335,"count":1},{"goodsSkuId":14569,"count":1}],"packDpList":[],"payAmount":"0.01","tradeChannel":2,"ext":"{\"groupUserCardId\":\"40772\",\"tradeGroupCardBindType\":\"1\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"\",\"gender\":\"\",\"realName\":\"小七2\",\"reserveTime\":1637510400000,\"examSuitPkgId\":'',\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 1, 'reportReserveTime': None, 'reserveId': 12729, 'reserveType': None, 'reserveUrl': None, 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316514545868', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【团检预约】7-绑定性别不限团检卡(老)-男性加项泌尿男彩超-预约男性订单支付-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】8-绑定性别不限团检卡(老)-男性加项泌尿男彩超-修改性别女预约-失败</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "reserveId": 12693}</t>
-  </si>
-  <si>
-    <t>【团检预约】9-绑定性别不限团检卡(老)-男性加项泌尿男彩超-修改性别男预约-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003075314, "reserveId": 12693}</t>
-  </si>
-  <si>
-    <t>【团检预约】1-绑定性别男团检卡(老)-成功</t>
-  </si>
-  <si>
-    <t>{"batchId":"2774","companyId":"2771","idNumber":"","isnew":"1","phone":"","userName":"小七1"}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select batch_id, user_name from hospital_user_card_upload where status=1 and batch_id=%s and bind_user_id is NULL;", "condition": "2774", "code": 0,'result':2774,"sql":0}</t>
-  </si>
-  <si>
-    <t>{'cardType': 3, 'reserveCardId': 3493, 'stationId': 'HL99998', 'userCardId': 39753}</t>
-  </si>
-  <si>
-    <t>【团检预约】2-绑定性别男团检卡(老)-是否走新推荐验证-成功</t>
-  </si>
-  <si>
-    <t>{'userCardId':39749}</t>
-  </si>
-  <si>
-    <t>【团检预约】3-绑定性别男团检卡(老)-预约性别女身份证-失败</t>
-  </si>
-  <si>
-    <t>【团检预约】4-绑定性别男团检卡(老)-预约性别男身份证-成功</t>
-  </si>
-  <si>
-    <t>【团检预约】5-绑定性别男团检卡(老)-预约性别男身份证-重点关注项目推荐-成功</t>
-  </si>
-  <si>
-    <t>{"age":"","cardNo":"110101199003075314","sex":"","married":1,"mobile":"17681829051","useType":"1","userCardId":"39749","userId":17200000312,"pkgId":2543,"itemIds":[]}</t>
-  </si>
-  <si>
-    <t>{'enablePkgUpgradeTxtShow': 1, 'enableSurveyQuestion': 1, 'examItemList': [{'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00005', 'itemName': '双侧甲状腺彩超', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '准确度和灵敏度高，可有效排查甲状腺肿瘤、结节、肿大、炎症等。', 'recommend': None, 'recommendIndex': 1, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14615, 'spuId': 14572, 'standardItemId': 60, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'HY0017', 'itemName': '血型', 'itemTagId': 17, 'itemTagName': '特色检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '能确保自己的医疗安全，如输血、器官移植选择供体等。', 'recommend': None, 'recommendIndex': 2, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '10', 'skuId': 14626, 'spuId': 14583, 'standardItemId': 109, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '0.2', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': True, 'isLimosis': None, 'isUrine': None, 'itemDiscount': 0.2, 'itemId': 'CT00008', 'itemName': '甲状腺双源CT', 'itemTagId': 13, 'itemTagName': '甲状腺疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '10', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 10.0, 'reason': '可早期发现甲亢、甲减等疾病，检查敏感度、准确性高。', 'recommend': None, 'recommendIndex': 3, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '2', 'skuId': 14628, 'spuId': 14585, 'standardItemId': 1154, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 1, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'CS00010', 'itemName': '心脏彩超（中心)', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '200', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 200.0, 'reason': '心电图反应心脏电生理情况，心脏彩超反应心脏结构以及功能，两者侧重点不一样', 'recommend': None, 'recommendIndex': 4, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '200', 'skuId': 11077, 'spuId': 11040, 'standardItemId': 59, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'ZL0002', 'itemName': '癌胚抗原CEA', 'itemTagId': 14, 'itemTagName': '心脑血管疾病筛查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '1.02', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 1.02, 'reason': '同型半胱氨酸是一项重要的人体健康指标，心脑血管发病风险的检测', 'recommend': None, 'recommendIndex': 5, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '1.02', 'skuId': 10416, 'spuId': 10379, 'standardItemId': 675, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 0, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'WYM0001', 'itemName': 'C13呼气试验(空腹)', 'itemTagId': 11, 'itemTagName': '胃部疾病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '3', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 3.0, 'reason': '胃功能检查简便、快速，避免了X-射线对人体的侵害和胃镜的不便', 'recommend': None, 'recommendIndex': 6, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '3', 'skuId': 10774, 'spuId': 10737, 'standardItemId': 678, 'stationId': 'HL99998'}, {'cohort': None, 'contraindication': None, 'desc': None, 'discount': '1', 'disease': None, 'excludeIds': None, 'gender': 1, 'inPkgItem': False, 'isDiscount': False, 'isLimosis': None, 'isUrine': None, 'itemDiscount': None, 'itemId': 'XZ0002', 'itemName': '426新增项目2', 'itemTagId': 21, 'itemTagName': '传染病检查', 'itemTags': None, 'label': None, 'notice': None, 'optionType': None, 'originalPrice': '0.01', 'price': None, 'purchaseNum': None, 'purpose': None, 'realPrice': 0.01, 'reason': '检查肝功能的目的在于探测肝脏有无疾病，肝脏损害程度以及查明肝病原因', 'recommend': None, 'recommendIndex': 7, 'recommendTag': 0, 'recommendType': 16, 'reservePersonalId': None, 'salePrice': '0.01', 'skuId': 10518, 'spuId': 10481, 'standardItemId': 672, 'stationId': 'HL99998'}], 'percent': 12, 'pkgUpgradeTxt': '30岁人群工作压力大，熬夜、饮食不规律等，患病风险逐渐年轻化，需要重点关注“颈椎疾病”、“胃部疾病”和“甲状腺疾病”及女性“宫颈癌”筛查。', 'policy': '4'}</t>
-  </si>
-  <si>
-    <t>【团检预约】6-绑定性别男团检卡(老)-预约性别男身份证-订单支付前计算金额-成功</t>
-  </si>
-  <si>
-    <t>{"exampackagePkgId":"","userCouponId":"0","hostTradeId":"","itemDpList":[{"goodsSkuId":14587,"count":1}],"packDpList":[],"tradeGroupCardBindType":"1","userCardId":"39749","tradeType":200}</t>
-  </si>
-  <si>
-    <t>{'addFeeitemDiscountStr': '', 'couponAmountStr': '1', 'groupCardAmountStr': '0', 'hostTradeInfoBo': None, 'items': [{'discountStr': '', 'goodsCount': 1, 'goodsName': '团检男', 'goodsPriceStr': '2.1', 'skuId': 14587, 'subType': 200, 'suitType': 0}], 'optimalBo': {'couponSelectStatus': 1, 'deductValue': 1.0, 'deductValueStr': '1', 'marginDeductValueStr': None, 'marginMinValueStr': None, 'marginUserCouponId': None, 'userCouponId': 1303}, 'payAmount': '1.1', 'payAmountStr': '1.1', 'selfDiscountAmountStr': '0', 'selfDiscountStr': '', 'totalAmountStr': '2.1', 'tradeCalculateGroupCardBo': {'cardType': 3, 'groupCardId': 39749}, 'tradeResult': 'TRADE_CALCULATE_SUCCESS', 'tradeTitle': '团检男', 'tradeType': 200}</t>
-  </si>
-  <si>
-    <t>【团检预约】7-绑定性别男团检卡(老)-预约性别男身份证-预约男性提交订单-成功</t>
-  </si>
-  <si>
-    <t>{"itemDpList":[{"goodsSkuId":14587,"count":1}],"packDpList":[],"payAmount":"0","tradeChannel":2,"ext":"{\"groupUserCardId\":\"39749\",\"tradeGroupCardBindType\":\"1\",\"hostTradeId\":\"\",\"examinationReservePo\":{\"branchId\":\"\",\"cardNo\":\"110101199003075314\",\"married\":1,\"mobile\":\"17681829051\",\"age\":\"\",\"gender\":\"\",\"realName\":\"小七1\",\"reserveTime\":1637510400000,\"examSuitPkgId\":'',\"intervalId\":1041,\"userId\":17200000312},\"selfSelectedItems\":[]}","userCouponId":"","tradeType":"200","tradeOS":2,"tradeSource":""}</t>
-  </si>
-  <si>
-    <t>{"my_sql": "select bind_user_id, user_card_id from hospital_user_card_upload where batch_id=2774 and bind_user_id=%s ORDER BY user_card_id desc;", "condition": "17200000312", "code": 0,'result':17200000312,"sql":4}</t>
-  </si>
-  <si>
-    <t>{'errorGoods': None, 'inquiryReserveTime': None, 'inquiryUrl': None, 'needPay': 0, 'reportReserveTime': None, 'reserveId': 12728, 'reserveType': 2, 'reserveUrl': 'http://management-fed-gray.helianhealth.com/envk8s//mall/appointmentinfo.html?rid=12728', 'selfSelectedItemName': None, 'tradeId': 'TJTC2020112316485373722', 'tradeResult': 'CREATE_TRADE_SUCCESS'}</t>
-  </si>
-  <si>
-    <t>【团检预约】8-绑定性别男团检卡(老)-预约性别男身份证-修改性别女预约验证-失败</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003072623, "reserveId":12703}</t>
-  </si>
-  <si>
-    <t>【团检预约】9-绑定性别男团检卡(老)-预约性别男身份证-修改性别男预约验证-成功</t>
-  </si>
-  <si>
-    <t>{'gender':1, 'cardNo':110101199003075314, "reserveId":12703}</t>
-  </si>
-  <si>
-    <t>【团检预约】10-绑定性别男团检卡(老)-预约性别男身份证-修改性别男预约保存-成功</t>
-  </si>
-  <si>
-    <t>{"reserveId":"12703","reserveTime":1637510400000,"intervalId":1041,"married":1,"mobile":"","cardNo":"110101199003075314","gender":1,"age":30,"realName":"小七1","branchId":""}</t>
   </si>
   <si>
     <t># env:默认0取url_app域名,1取url_wx</t>
@@ -3201,9 +2328,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3235,16 +2362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3257,55 +2384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3319,9 +2407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3336,14 +2423,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3358,10 +2446,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3374,79 +2501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,31 +2519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3500,19 +2531,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3530,13 +2591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3548,13 +2621,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3565,62 +2692,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3642,8 +2713,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3651,8 +2722,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3669,53 +2796,53 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3790,7 +2917,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13162,10 +12289,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13407,5149 +12534,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:14">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D6" t="s">
-        <v>749</v>
-      </c>
-      <c r="E6" t="s">
-        <v>764</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>765</v>
-      </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:14">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>766</v>
-      </c>
-      <c r="D7" t="s">
-        <v>767</v>
-      </c>
-      <c r="E7" t="s">
-        <v>755</v>
-      </c>
-      <c r="F7" t="s">
-        <v>768</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7">
-        <v>0.1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:14">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>769</v>
-      </c>
-      <c r="D8" t="s">
-        <v>770</v>
-      </c>
-      <c r="E8" t="s">
-        <v>755</v>
-      </c>
-      <c r="F8" t="s">
-        <v>768</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>20289</v>
-      </c>
-      <c r="I8" t="s">
-        <v>759</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>760</v>
-      </c>
-      <c r="M8">
-        <v>0.1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:14">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>771</v>
-      </c>
-      <c r="D9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F9" t="s">
-        <v>768</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>20289</v>
-      </c>
-      <c r="I9" t="s">
-        <v>759</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>760</v>
-      </c>
-      <c r="M9">
-        <v>0.1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:14">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>773</v>
-      </c>
-      <c r="D10" t="s">
-        <v>749</v>
-      </c>
-      <c r="E10" t="s">
-        <v>774</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>775</v>
-      </c>
-      <c r="M10">
-        <v>0.1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:14">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>776</v>
-      </c>
-      <c r="D11" t="s">
-        <v>777</v>
-      </c>
-      <c r="E11" t="s">
-        <v>778</v>
-      </c>
-      <c r="F11" t="s">
-        <v>779</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>780</v>
-      </c>
-      <c r="M11">
-        <v>0.1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:14">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>781</v>
-      </c>
-      <c r="D12" t="s">
-        <v>782</v>
-      </c>
-      <c r="E12" t="s">
-        <v>778</v>
-      </c>
-      <c r="F12" t="s">
-        <v>779</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>20289</v>
-      </c>
-      <c r="I12" t="s">
-        <v>759</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>760</v>
-      </c>
-      <c r="M12">
-        <v>0.1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:14">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>783</v>
-      </c>
-      <c r="D13" t="s">
-        <v>784</v>
-      </c>
-      <c r="E13" t="s">
-        <v>778</v>
-      </c>
-      <c r="F13" t="s">
-        <v>779</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>20289</v>
-      </c>
-      <c r="I13" t="s">
-        <v>759</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>760</v>
-      </c>
-      <c r="M13">
-        <v>0.1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>785</v>
-      </c>
-      <c r="D14" t="s">
-        <v>749</v>
-      </c>
-      <c r="E14" t="s">
-        <v>786</v>
-      </c>
-      <c r="F14" t="s">
-        <v>787</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>788</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:14">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>789</v>
-      </c>
-      <c r="D15" t="s">
-        <v>790</v>
-      </c>
-      <c r="E15" t="s">
-        <v>791</v>
-      </c>
-      <c r="F15" t="s">
-        <v>792</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15">
-        <v>0.1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:14">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>793</v>
-      </c>
-      <c r="D16" t="s">
-        <v>794</v>
-      </c>
-      <c r="E16" t="s">
-        <v>791</v>
-      </c>
-      <c r="F16" t="s">
-        <v>792</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16">
-        <v>20289</v>
-      </c>
-      <c r="I16" t="s">
-        <v>759</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>760</v>
-      </c>
-      <c r="M16">
-        <v>0.1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:14">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>795</v>
-      </c>
-      <c r="D17" t="s">
-        <v>796</v>
-      </c>
-      <c r="E17" t="s">
-        <v>791</v>
-      </c>
-      <c r="F17" t="s">
-        <v>792</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17">
-        <v>20289</v>
-      </c>
-      <c r="I17" t="s">
-        <v>759</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>760</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:14">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>797</v>
-      </c>
-      <c r="D18" t="s">
-        <v>790</v>
-      </c>
-      <c r="E18" t="s">
-        <v>791</v>
-      </c>
-      <c r="F18" t="s">
-        <v>798</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:14">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>799</v>
-      </c>
-      <c r="D19" t="s">
-        <v>794</v>
-      </c>
-      <c r="E19" t="s">
-        <v>791</v>
-      </c>
-      <c r="F19" t="s">
-        <v>798</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <v>20289</v>
-      </c>
-      <c r="I19" t="s">
-        <v>759</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>760</v>
-      </c>
-      <c r="M19">
-        <v>0.1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:14">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>800</v>
-      </c>
-      <c r="D20" t="s">
-        <v>796</v>
-      </c>
-      <c r="E20" t="s">
-        <v>791</v>
-      </c>
-      <c r="F20" t="s">
-        <v>798</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20">
-        <v>20289</v>
-      </c>
-      <c r="I20" t="s">
-        <v>759</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>760</v>
-      </c>
-      <c r="M20">
-        <v>0.1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:14">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>801</v>
-      </c>
-      <c r="D21" t="s">
-        <v>802</v>
-      </c>
-      <c r="E21" t="s">
-        <v>803</v>
-      </c>
-      <c r="F21" t="s">
-        <v>804</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>0.1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:14">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>805</v>
-      </c>
-      <c r="D22" t="s">
-        <v>806</v>
-      </c>
-      <c r="E22" t="s">
-        <v>803</v>
-      </c>
-      <c r="F22" t="s">
-        <v>804</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22">
-        <v>20289</v>
-      </c>
-      <c r="I22" t="s">
-        <v>759</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>760</v>
-      </c>
-      <c r="M22">
-        <v>0.1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:14">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>807</v>
-      </c>
-      <c r="D23" t="s">
-        <v>808</v>
-      </c>
-      <c r="E23" t="s">
-        <v>803</v>
-      </c>
-      <c r="F23" t="s">
-        <v>804</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23">
-        <v>20289</v>
-      </c>
-      <c r="I23" t="s">
-        <v>759</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>760</v>
-      </c>
-      <c r="M23">
-        <v>0.1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:14">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>809</v>
-      </c>
-      <c r="D24" t="s">
-        <v>749</v>
-      </c>
-      <c r="E24" t="s">
-        <v>810</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>811</v>
-      </c>
-      <c r="M24">
-        <v>0.1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:14">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>812</v>
-      </c>
-      <c r="D25" t="s">
-        <v>813</v>
-      </c>
-      <c r="E25" t="s">
-        <v>814</v>
-      </c>
-      <c r="F25" t="s">
-        <v>815</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>816</v>
-      </c>
-      <c r="M25">
-        <v>0.1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:14">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>817</v>
-      </c>
-      <c r="D26" t="s">
-        <v>818</v>
-      </c>
-      <c r="E26" t="s">
-        <v>814</v>
-      </c>
-      <c r="F26" t="s">
-        <v>815</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26">
-        <v>20289</v>
-      </c>
-      <c r="I26" t="s">
-        <v>759</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s">
-        <v>760</v>
-      </c>
-      <c r="M26">
-        <v>0.1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="15" customHeight="1" spans="1:14">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>819</v>
-      </c>
-      <c r="D27" t="s">
-        <v>820</v>
-      </c>
-      <c r="E27" t="s">
-        <v>814</v>
-      </c>
-      <c r="F27" t="s">
-        <v>815</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27">
-        <v>20289</v>
-      </c>
-      <c r="I27" t="s">
-        <v>759</v>
-      </c>
-      <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>760</v>
-      </c>
-      <c r="M27">
-        <v>0.1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="15" customHeight="1" spans="1:14">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>821</v>
-      </c>
-      <c r="D28" t="s">
-        <v>813</v>
-      </c>
-      <c r="E28" t="s">
-        <v>822</v>
-      </c>
-      <c r="F28" t="s">
-        <v>823</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28">
-        <v>0.1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="15" customHeight="1" spans="1:14">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>824</v>
-      </c>
-      <c r="D29" t="s">
-        <v>818</v>
-      </c>
-      <c r="E29" t="s">
-        <v>822</v>
-      </c>
-      <c r="F29" t="s">
-        <v>823</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29">
-        <v>20289</v>
-      </c>
-      <c r="I29" t="s">
-        <v>759</v>
-      </c>
-      <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>760</v>
-      </c>
-      <c r="M29">
-        <v>0.1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="15" customHeight="1" spans="1:14">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>825</v>
-      </c>
-      <c r="D30" t="s">
-        <v>820</v>
-      </c>
-      <c r="E30" t="s">
-        <v>822</v>
-      </c>
-      <c r="F30" t="s">
-        <v>823</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30">
-        <v>20289</v>
-      </c>
-      <c r="I30" t="s">
-        <v>759</v>
-      </c>
-      <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>760</v>
-      </c>
-      <c r="M30">
-        <v>0.1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:14">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>826</v>
-      </c>
-      <c r="D31" t="s">
-        <v>749</v>
-      </c>
-      <c r="E31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F31" t="s">
-        <v>828</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>829</v>
-      </c>
-      <c r="M31">
-        <v>0.1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:14">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>830</v>
-      </c>
-      <c r="D32" t="s">
-        <v>831</v>
-      </c>
-      <c r="E32" t="s">
-        <v>832</v>
-      </c>
-      <c r="F32" t="s">
-        <v>833</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <v>0.1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:14">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>834</v>
-      </c>
-      <c r="D33" t="s">
-        <v>835</v>
-      </c>
-      <c r="E33" t="s">
-        <v>832</v>
-      </c>
-      <c r="F33" t="s">
-        <v>833</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33">
-        <v>20289</v>
-      </c>
-      <c r="I33" t="s">
-        <v>759</v>
-      </c>
-      <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>760</v>
-      </c>
-      <c r="M33">
-        <v>0.1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:14">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>836</v>
-      </c>
-      <c r="D34" t="s">
-        <v>837</v>
-      </c>
-      <c r="E34" t="s">
-        <v>832</v>
-      </c>
-      <c r="F34" t="s">
-        <v>833</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34">
-        <v>20289</v>
-      </c>
-      <c r="I34" t="s">
-        <v>759</v>
-      </c>
-      <c r="J34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>760</v>
-      </c>
-      <c r="M34">
-        <v>0.1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:14">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>838</v>
-      </c>
-      <c r="D35" t="s">
-        <v>749</v>
-      </c>
-      <c r="E35" t="s">
-        <v>839</v>
-      </c>
-      <c r="F35" t="s">
-        <v>840</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>841</v>
-      </c>
-      <c r="M35">
-        <v>0.1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:14">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>842</v>
-      </c>
-      <c r="D36" t="s">
-        <v>843</v>
-      </c>
-      <c r="E36" t="s">
-        <v>844</v>
-      </c>
-      <c r="F36" t="s">
-        <v>845</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36">
-        <v>0.1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:14">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>846</v>
-      </c>
-      <c r="D37" t="s">
-        <v>847</v>
-      </c>
-      <c r="E37" t="s">
-        <v>844</v>
-      </c>
-      <c r="F37" t="s">
-        <v>845</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37">
-        <v>20289</v>
-      </c>
-      <c r="I37" t="s">
-        <v>759</v>
-      </c>
-      <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>760</v>
-      </c>
-      <c r="M37">
-        <v>0.1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:14">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>848</v>
-      </c>
-      <c r="D38" t="s">
-        <v>849</v>
-      </c>
-      <c r="E38" t="s">
-        <v>844</v>
-      </c>
-      <c r="F38" t="s">
-        <v>845</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38">
-        <v>20289</v>
-      </c>
-      <c r="I38" t="s">
-        <v>759</v>
-      </c>
-      <c r="J38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>760</v>
-      </c>
-      <c r="M38">
-        <v>0.1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:14">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>850</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>851</v>
-      </c>
-      <c r="F39" t="s">
-        <v>852</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s">
-        <v>853</v>
-      </c>
-      <c r="M39">
-        <v>0.1</v>
-      </c>
-      <c r="N39" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:14">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>855</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>441</v>
-      </c>
-      <c r="F40" t="s">
-        <v>856</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>857</v>
-      </c>
-      <c r="M40">
-        <v>0.1</v>
-      </c>
-      <c r="N40" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:14">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>858</v>
-      </c>
-      <c r="D41" t="s">
-        <v>712</v>
-      </c>
-      <c r="E41" t="s">
-        <v>450</v>
-      </c>
-      <c r="F41" t="s">
-        <v>859</v>
-      </c>
-      <c r="G41" t="s">
-        <v>860</v>
-      </c>
-      <c r="H41" t="s">
-        <v>244</v>
-      </c>
-      <c r="I41" t="s">
-        <v>244</v>
-      </c>
-      <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41">
-        <v>0.1</v>
-      </c>
-      <c r="N41" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:14">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>861</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" t="s">
-        <v>862</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>863</v>
-      </c>
-      <c r="M42">
-        <v>0.1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:14">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>864</v>
-      </c>
-      <c r="D43" t="s">
-        <v>865</v>
-      </c>
-      <c r="E43" t="s">
-        <v>866</v>
-      </c>
-      <c r="F43" t="s">
-        <v>867</v>
-      </c>
-      <c r="G43" t="s">
-        <v>868</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43">
-        <v>0.1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:14">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>869</v>
-      </c>
-      <c r="D44" t="s">
-        <v>712</v>
-      </c>
-      <c r="E44" t="s">
-        <v>870</v>
-      </c>
-      <c r="F44" t="s">
-        <v>871</v>
-      </c>
-      <c r="G44" t="s">
-        <v>860</v>
-      </c>
-      <c r="H44" t="s">
-        <v>244</v>
-      </c>
-      <c r="I44" t="s">
-        <v>244</v>
-      </c>
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>872</v>
-      </c>
-      <c r="M44">
-        <v>0.1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:14">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
-        <v>873</v>
-      </c>
-      <c r="D45" t="s">
-        <v>712</v>
-      </c>
-      <c r="E45" t="s">
-        <v>870</v>
-      </c>
-      <c r="F45" t="s">
-        <v>874</v>
-      </c>
-      <c r="G45" t="s">
-        <v>860</v>
-      </c>
-      <c r="H45" t="s">
-        <v>251</v>
-      </c>
-      <c r="I45" t="s">
-        <v>251</v>
-      </c>
-      <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>872</v>
-      </c>
-      <c r="M45">
-        <v>0.1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:14">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>875</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s">
-        <v>851</v>
-      </c>
-      <c r="F46" t="s">
-        <v>876</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>877</v>
-      </c>
-      <c r="M46">
-        <v>0.1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:14">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>878</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>441</v>
-      </c>
-      <c r="F47" t="s">
-        <v>879</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>880</v>
-      </c>
-      <c r="M47">
-        <v>0.1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:14">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>881</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" t="s">
-        <v>882</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
-        <v>883</v>
-      </c>
-      <c r="M48">
-        <v>0.1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:14">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>884</v>
-      </c>
-      <c r="D49" t="s">
-        <v>865</v>
-      </c>
-      <c r="E49" t="s">
-        <v>866</v>
-      </c>
-      <c r="F49" t="s">
-        <v>885</v>
-      </c>
-      <c r="G49" t="s">
-        <v>868</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49">
-        <v>0.1</v>
-      </c>
-      <c r="N49" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:14">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>886</v>
-      </c>
-      <c r="D50" t="s">
-        <v>712</v>
-      </c>
-      <c r="E50" t="s">
-        <v>870</v>
-      </c>
-      <c r="F50" t="s">
-        <v>874</v>
-      </c>
-      <c r="G50" t="s">
-        <v>860</v>
-      </c>
-      <c r="H50" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" t="s">
-        <v>251</v>
-      </c>
-      <c r="J50" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s">
-        <v>872</v>
-      </c>
-      <c r="M50">
-        <v>0.1</v>
-      </c>
-      <c r="N50" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:14">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>887</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>851</v>
-      </c>
-      <c r="F51" t="s">
-        <v>888</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" t="s">
-        <v>853</v>
-      </c>
-      <c r="M51">
-        <v>0.1</v>
-      </c>
-      <c r="N51" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:14">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>889</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>441</v>
-      </c>
-      <c r="F52" t="s">
-        <v>890</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" t="s">
-        <v>891</v>
-      </c>
-      <c r="M52">
-        <v>0.1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:14">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
-        <v>892</v>
-      </c>
-      <c r="D53" t="s">
-        <v>712</v>
-      </c>
-      <c r="E53" t="s">
-        <v>450</v>
-      </c>
-      <c r="F53" t="s">
-        <v>893</v>
-      </c>
-      <c r="G53" t="s">
-        <v>860</v>
-      </c>
-      <c r="H53" t="s">
-        <v>244</v>
-      </c>
-      <c r="I53" t="s">
-        <v>244</v>
-      </c>
-      <c r="J53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53">
-        <v>0.1</v>
-      </c>
-      <c r="N53" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:14">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>894</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" t="s">
-        <v>895</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" t="s">
-        <v>896</v>
-      </c>
-      <c r="M54">
-        <v>0.1</v>
-      </c>
-      <c r="N54" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:14">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>897</v>
-      </c>
-      <c r="D55" t="s">
-        <v>865</v>
-      </c>
-      <c r="E55" t="s">
-        <v>866</v>
-      </c>
-      <c r="F55" t="s">
-        <v>867</v>
-      </c>
-      <c r="G55" t="s">
-        <v>868</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55">
-        <v>0.1</v>
-      </c>
-      <c r="N55" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:14">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>898</v>
-      </c>
-      <c r="D56" t="s">
-        <v>712</v>
-      </c>
-      <c r="E56" t="s">
-        <v>870</v>
-      </c>
-      <c r="F56" t="s">
-        <v>874</v>
-      </c>
-      <c r="G56" t="s">
-        <v>860</v>
-      </c>
-      <c r="H56" t="s">
-        <v>251</v>
-      </c>
-      <c r="I56" t="s">
-        <v>251</v>
-      </c>
-      <c r="J56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" t="s">
-        <v>872</v>
-      </c>
-      <c r="M56">
-        <v>0.1</v>
-      </c>
-      <c r="N56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:14">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>899</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>851</v>
-      </c>
-      <c r="F57" t="s">
-        <v>900</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>853</v>
-      </c>
-      <c r="M57">
-        <v>0.1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:14">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>901</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>441</v>
-      </c>
-      <c r="F58" t="s">
-        <v>902</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" t="s">
-        <v>903</v>
-      </c>
-      <c r="M58">
-        <v>0.1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:14">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
-        <v>904</v>
-      </c>
-      <c r="D59" t="s">
-        <v>712</v>
-      </c>
-      <c r="E59" t="s">
-        <v>450</v>
-      </c>
-      <c r="F59" t="s">
-        <v>905</v>
-      </c>
-      <c r="G59" t="s">
-        <v>860</v>
-      </c>
-      <c r="H59" t="s">
-        <v>244</v>
-      </c>
-      <c r="I59" t="s">
-        <v>244</v>
-      </c>
-      <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59">
-        <v>0.1</v>
-      </c>
-      <c r="N59" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:14">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>906</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>200</v>
-      </c>
-      <c r="F60" t="s">
-        <v>907</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" t="s">
-        <v>908</v>
-      </c>
-      <c r="M60">
-        <v>0.1</v>
-      </c>
-      <c r="N60" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:14">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>909</v>
-      </c>
-      <c r="D61" t="s">
-        <v>865</v>
-      </c>
-      <c r="E61" t="s">
-        <v>866</v>
-      </c>
-      <c r="F61" t="s">
-        <v>867</v>
-      </c>
-      <c r="G61" t="s">
-        <v>868</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61">
-        <v>0.1</v>
-      </c>
-      <c r="N61" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:14">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>910</v>
-      </c>
-      <c r="D62" t="s">
-        <v>712</v>
-      </c>
-      <c r="E62" t="s">
-        <v>911</v>
-      </c>
-      <c r="F62" t="s">
-        <v>912</v>
-      </c>
-      <c r="G62" t="s">
-        <v>860</v>
-      </c>
-      <c r="H62" t="s">
-        <v>244</v>
-      </c>
-      <c r="I62" t="s">
-        <v>244</v>
-      </c>
-      <c r="J62" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62">
-        <v>0.1</v>
-      </c>
-      <c r="N62" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:14">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" t="s">
-        <v>913</v>
-      </c>
-      <c r="D63" t="s">
-        <v>712</v>
-      </c>
-      <c r="E63" t="s">
-        <v>911</v>
-      </c>
-      <c r="F63" t="s">
-        <v>914</v>
-      </c>
-      <c r="G63" t="s">
-        <v>860</v>
-      </c>
-      <c r="H63" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" t="s">
-        <v>251</v>
-      </c>
-      <c r="J63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63">
-        <v>0.1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:14">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" t="s">
-        <v>915</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
-        <v>851</v>
-      </c>
-      <c r="F64" t="s">
-        <v>916</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>853</v>
-      </c>
-      <c r="M64">
-        <v>0.1</v>
-      </c>
-      <c r="N64" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:14">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>917</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" t="s">
-        <v>918</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>919</v>
-      </c>
-      <c r="M65">
-        <v>0.1</v>
-      </c>
-      <c r="N65" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:14">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>920</v>
-      </c>
-      <c r="D66" t="s">
-        <v>712</v>
-      </c>
-      <c r="E66" t="s">
-        <v>450</v>
-      </c>
-      <c r="F66" t="s">
-        <v>921</v>
-      </c>
-      <c r="G66" t="s">
-        <v>860</v>
-      </c>
-      <c r="H66" t="s">
-        <v>244</v>
-      </c>
-      <c r="I66" t="s">
-        <v>244</v>
-      </c>
-      <c r="J66" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>0.1</v>
-      </c>
-      <c r="N66" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:14">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>922</v>
-      </c>
-      <c r="D67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" t="s">
-        <v>923</v>
-      </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>924</v>
-      </c>
-      <c r="M67">
-        <v>0.1</v>
-      </c>
-      <c r="N67" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:14">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s">
-        <v>925</v>
-      </c>
-      <c r="D68" t="s">
-        <v>865</v>
-      </c>
-      <c r="E68" t="s">
-        <v>866</v>
-      </c>
-      <c r="F68" t="s">
-        <v>867</v>
-      </c>
-      <c r="G68" t="s">
-        <v>868</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68">
-        <v>0.1</v>
-      </c>
-      <c r="N68" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:14">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" t="s">
-        <v>926</v>
-      </c>
-      <c r="D69" t="s">
-        <v>712</v>
-      </c>
-      <c r="E69" t="s">
-        <v>911</v>
-      </c>
-      <c r="F69" t="s">
-        <v>912</v>
-      </c>
-      <c r="G69" t="s">
-        <v>860</v>
-      </c>
-      <c r="H69" t="s">
-        <v>244</v>
-      </c>
-      <c r="I69" t="s">
-        <v>244</v>
-      </c>
-      <c r="J69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>0.1</v>
-      </c>
-      <c r="N69" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:14">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>927</v>
-      </c>
-      <c r="D70" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" t="s">
-        <v>441</v>
-      </c>
-      <c r="F70" t="s">
-        <v>928</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" t="s">
-        <v>929</v>
-      </c>
-      <c r="M70">
-        <v>0.1</v>
-      </c>
-      <c r="N70" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:14">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>930</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s">
-        <v>200</v>
-      </c>
-      <c r="F71" t="s">
-        <v>931</v>
-      </c>
-      <c r="G71" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" t="s">
-        <v>932</v>
-      </c>
-      <c r="M71">
-        <v>0.1</v>
-      </c>
-      <c r="N71" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:14">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>933</v>
-      </c>
-      <c r="D72" t="s">
-        <v>865</v>
-      </c>
-      <c r="E72" t="s">
-        <v>866</v>
-      </c>
-      <c r="F72" t="s">
-        <v>867</v>
-      </c>
-      <c r="G72" t="s">
-        <v>868</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72">
-        <v>0.1</v>
-      </c>
-      <c r="N72" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:14">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" t="s">
-        <v>934</v>
-      </c>
-      <c r="D73" t="s">
-        <v>712</v>
-      </c>
-      <c r="E73" t="s">
-        <v>911</v>
-      </c>
-      <c r="F73" t="s">
-        <v>912</v>
-      </c>
-      <c r="G73" t="s">
-        <v>860</v>
-      </c>
-      <c r="H73" t="s">
-        <v>251</v>
-      </c>
-      <c r="I73" t="s">
-        <v>251</v>
-      </c>
-      <c r="J73" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73">
-        <v>0.1</v>
-      </c>
-      <c r="N73" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:14">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>935</v>
-      </c>
-      <c r="D74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" t="s">
-        <v>936</v>
-      </c>
-      <c r="G74" t="s">
-        <v>937</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" t="s">
-        <v>938</v>
-      </c>
-      <c r="M74">
-        <v>0.1</v>
-      </c>
-      <c r="N74" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:14">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" t="s">
-        <v>939</v>
-      </c>
-      <c r="D75" t="s">
-        <v>712</v>
-      </c>
-      <c r="E75" t="s">
-        <v>498</v>
-      </c>
-      <c r="F75" t="s">
-        <v>940</v>
-      </c>
-      <c r="G75" t="s">
-        <v>941</v>
-      </c>
-      <c r="H75" t="s">
-        <v>251</v>
-      </c>
-      <c r="I75" t="s">
-        <v>251</v>
-      </c>
-      <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s">
-        <v>20</v>
-      </c>
-      <c r="M75">
-        <v>0.1</v>
-      </c>
-      <c r="N75" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:14">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" t="s">
-        <v>942</v>
-      </c>
-      <c r="D76" t="s">
-        <v>712</v>
-      </c>
-      <c r="E76" t="s">
-        <v>450</v>
-      </c>
-      <c r="F76" t="s">
-        <v>943</v>
-      </c>
-      <c r="G76" t="s">
-        <v>860</v>
-      </c>
-      <c r="H76" t="s">
-        <v>251</v>
-      </c>
-      <c r="I76" t="s">
-        <v>251</v>
-      </c>
-      <c r="J76" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s">
-        <v>20</v>
-      </c>
-      <c r="M76">
-        <v>0.1</v>
-      </c>
-      <c r="N76" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:14">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>944</v>
-      </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" t="s">
-        <v>441</v>
-      </c>
-      <c r="F77" t="s">
-        <v>945</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" t="s">
-        <v>946</v>
-      </c>
-      <c r="M77">
-        <v>0.1</v>
-      </c>
-      <c r="N77" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:14">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>947</v>
-      </c>
-      <c r="D78" t="s">
-        <v>865</v>
-      </c>
-      <c r="E78" t="s">
-        <v>200</v>
-      </c>
-      <c r="F78" t="s">
-        <v>948</v>
-      </c>
-      <c r="G78" t="s">
-        <v>949</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" t="s">
-        <v>950</v>
-      </c>
-      <c r="M78">
-        <v>0.1</v>
-      </c>
-      <c r="N78" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:14">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" t="s">
-        <v>951</v>
-      </c>
-      <c r="D79" t="s">
-        <v>712</v>
-      </c>
-      <c r="E79" t="s">
-        <v>870</v>
-      </c>
-      <c r="F79" t="s">
-        <v>871</v>
-      </c>
-      <c r="G79" t="s">
-        <v>860</v>
-      </c>
-      <c r="H79" t="s">
-        <v>251</v>
-      </c>
-      <c r="I79" t="s">
-        <v>251</v>
-      </c>
-      <c r="J79" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79">
-        <v>0.1</v>
-      </c>
-      <c r="N79" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:14">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" t="s">
-        <v>952</v>
-      </c>
-      <c r="D80" t="s">
-        <v>712</v>
-      </c>
-      <c r="E80" t="s">
-        <v>870</v>
-      </c>
-      <c r="F80" t="s">
-        <v>874</v>
-      </c>
-      <c r="G80" t="s">
-        <v>860</v>
-      </c>
-      <c r="H80" t="s">
-        <v>251</v>
-      </c>
-      <c r="I80" t="s">
-        <v>251</v>
-      </c>
-      <c r="J80" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80">
-        <v>0.1</v>
-      </c>
-      <c r="N80" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:14">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s">
-        <v>953</v>
-      </c>
-      <c r="D81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" t="s">
-        <v>954</v>
-      </c>
-      <c r="G81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" t="s">
-        <v>29</v>
-      </c>
-      <c r="M81">
-        <v>0.1</v>
-      </c>
-      <c r="N81" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:14">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="s">
-        <v>955</v>
-      </c>
-      <c r="D82" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" t="s">
-        <v>179</v>
-      </c>
-      <c r="F82" t="s">
-        <v>936</v>
-      </c>
-      <c r="G82" t="s">
-        <v>937</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" t="s">
-        <v>956</v>
-      </c>
-      <c r="M82">
-        <v>0.1</v>
-      </c>
-      <c r="N82" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:14">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" t="s">
-        <v>957</v>
-      </c>
-      <c r="D83" t="s">
-        <v>712</v>
-      </c>
-      <c r="E83" t="s">
-        <v>498</v>
-      </c>
-      <c r="F83" t="s">
-        <v>940</v>
-      </c>
-      <c r="G83" t="s">
-        <v>941</v>
-      </c>
-      <c r="H83" t="s">
-        <v>251</v>
-      </c>
-      <c r="I83" t="s">
-        <v>251</v>
-      </c>
-      <c r="J83" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83">
-        <v>0.1</v>
-      </c>
-      <c r="N83" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:14">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
-        <v>958</v>
-      </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" t="s">
-        <v>851</v>
-      </c>
-      <c r="F84" t="s">
-        <v>959</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s">
-        <v>20</v>
-      </c>
-      <c r="K84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" t="s">
-        <v>960</v>
-      </c>
-      <c r="M84">
-        <v>0.1</v>
-      </c>
-      <c r="N84" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:14">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" t="s">
-        <v>961</v>
-      </c>
-      <c r="D85" t="s">
-        <v>712</v>
-      </c>
-      <c r="E85" t="s">
-        <v>870</v>
-      </c>
-      <c r="F85" t="s">
-        <v>874</v>
-      </c>
-      <c r="G85" t="s">
-        <v>860</v>
-      </c>
-      <c r="H85" t="s">
-        <v>251</v>
-      </c>
-      <c r="I85" t="s">
-        <v>251</v>
-      </c>
-      <c r="J85" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85">
-        <v>0.1</v>
-      </c>
-      <c r="N85" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:14">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>962</v>
-      </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" t="s">
-        <v>441</v>
-      </c>
-      <c r="F86" t="s">
-        <v>963</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" t="s">
-        <v>964</v>
-      </c>
-      <c r="M86">
-        <v>0.1</v>
-      </c>
-      <c r="N86" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:14">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>965</v>
-      </c>
-      <c r="D87" t="s">
-        <v>865</v>
-      </c>
-      <c r="E87" t="s">
-        <v>200</v>
-      </c>
-      <c r="F87" t="s">
-        <v>966</v>
-      </c>
-      <c r="G87" t="s">
-        <v>949</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" t="s">
-        <v>967</v>
-      </c>
-      <c r="M87">
-        <v>0.1</v>
-      </c>
-      <c r="N87" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:14">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="s">
-        <v>968</v>
-      </c>
-      <c r="D88" t="s">
-        <v>865</v>
-      </c>
-      <c r="E88" t="s">
-        <v>866</v>
-      </c>
-      <c r="F88" t="s">
-        <v>867</v>
-      </c>
-      <c r="G88" t="s">
-        <v>868</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88">
-        <v>0.1</v>
-      </c>
-      <c r="N88" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:14">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>969</v>
-      </c>
-      <c r="D89" t="s">
-        <v>712</v>
-      </c>
-      <c r="E89" t="s">
-        <v>870</v>
-      </c>
-      <c r="F89" t="s">
-        <v>970</v>
-      </c>
-      <c r="G89" t="s">
-        <v>860</v>
-      </c>
-      <c r="H89" t="s">
-        <v>244</v>
-      </c>
-      <c r="I89" t="s">
-        <v>244</v>
-      </c>
-      <c r="J89" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89">
-        <v>0.1</v>
-      </c>
-      <c r="N89" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:14">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" t="s">
-        <v>971</v>
-      </c>
-      <c r="D90" t="s">
-        <v>712</v>
-      </c>
-      <c r="E90" t="s">
-        <v>870</v>
-      </c>
-      <c r="F90" t="s">
-        <v>972</v>
-      </c>
-      <c r="G90" t="s">
-        <v>860</v>
-      </c>
-      <c r="H90" t="s">
-        <v>251</v>
-      </c>
-      <c r="I90" t="s">
-        <v>251</v>
-      </c>
-      <c r="J90" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" t="s">
-        <v>20</v>
-      </c>
-      <c r="M90">
-        <v>0.1</v>
-      </c>
-      <c r="N90" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:14">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="s">
-        <v>973</v>
-      </c>
-      <c r="D91" t="s">
-        <v>178</v>
-      </c>
-      <c r="E91" t="s">
-        <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>974</v>
-      </c>
-      <c r="G91" t="s">
-        <v>975</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" t="s">
-        <v>20</v>
-      </c>
-      <c r="K91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" t="s">
-        <v>976</v>
-      </c>
-      <c r="M91">
-        <v>0.1</v>
-      </c>
-      <c r="N91" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:14">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" t="s">
-        <v>977</v>
-      </c>
-      <c r="D92" t="s">
-        <v>712</v>
-      </c>
-      <c r="E92" t="s">
-        <v>450</v>
-      </c>
-      <c r="F92" t="s">
-        <v>978</v>
-      </c>
-      <c r="G92" t="s">
-        <v>860</v>
-      </c>
-      <c r="H92" t="s">
-        <v>244</v>
-      </c>
-      <c r="I92" t="s">
-        <v>244</v>
-      </c>
-      <c r="J92" t="s">
-        <v>20</v>
-      </c>
-      <c r="K92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M92">
-        <v>0.1</v>
-      </c>
-      <c r="N92" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:14">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" t="s">
-        <v>979</v>
-      </c>
-      <c r="D93" t="s">
-        <v>712</v>
-      </c>
-      <c r="E93" t="s">
-        <v>450</v>
-      </c>
-      <c r="F93" t="s">
-        <v>980</v>
-      </c>
-      <c r="G93" t="s">
-        <v>860</v>
-      </c>
-      <c r="H93" t="s">
-        <v>251</v>
-      </c>
-      <c r="I93" t="s">
-        <v>251</v>
-      </c>
-      <c r="J93" t="s">
-        <v>20</v>
-      </c>
-      <c r="K93" t="s">
-        <v>20</v>
-      </c>
-      <c r="M93">
-        <v>0.1</v>
-      </c>
-      <c r="N93" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:14">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>981</v>
-      </c>
-      <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" t="s">
-        <v>441</v>
-      </c>
-      <c r="F94" t="s">
-        <v>982</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" t="s">
-        <v>20</v>
-      </c>
-      <c r="K94" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" t="s">
-        <v>983</v>
-      </c>
-      <c r="M94">
-        <v>0.1</v>
-      </c>
-      <c r="N94" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:14">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="s">
-        <v>984</v>
-      </c>
-      <c r="D95" t="s">
-        <v>865</v>
-      </c>
-      <c r="E95" t="s">
-        <v>200</v>
-      </c>
-      <c r="F95" t="s">
-        <v>985</v>
-      </c>
-      <c r="G95" t="s">
-        <v>986</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>19</v>
-      </c>
-      <c r="J95" t="s">
-        <v>20</v>
-      </c>
-      <c r="K95" t="s">
-        <v>20</v>
-      </c>
-      <c r="L95" t="s">
-        <v>987</v>
-      </c>
-      <c r="M95">
-        <v>0.1</v>
-      </c>
-      <c r="N95" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:14">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
-        <v>988</v>
-      </c>
-      <c r="D96" t="s">
-        <v>712</v>
-      </c>
-      <c r="E96" t="s">
-        <v>870</v>
-      </c>
-      <c r="F96" t="s">
-        <v>989</v>
-      </c>
-      <c r="G96" t="s">
-        <v>860</v>
-      </c>
-      <c r="H96" t="s">
-        <v>251</v>
-      </c>
-      <c r="I96" t="s">
-        <v>251</v>
-      </c>
-      <c r="J96" t="s">
-        <v>20</v>
-      </c>
-      <c r="K96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96">
-        <v>0.1</v>
-      </c>
-      <c r="N96" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:14">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>990</v>
-      </c>
-      <c r="D97" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" t="s">
-        <v>991</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>19</v>
-      </c>
-      <c r="J97" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" t="s">
-        <v>29</v>
-      </c>
-      <c r="M97">
-        <v>0.1</v>
-      </c>
-      <c r="N97" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:14">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>992</v>
-      </c>
-      <c r="D98" t="s">
-        <v>178</v>
-      </c>
-      <c r="E98" t="s">
-        <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>993</v>
-      </c>
-      <c r="G98" t="s">
-        <v>994</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>19</v>
-      </c>
-      <c r="J98" t="s">
-        <v>20</v>
-      </c>
-      <c r="K98" t="s">
-        <v>20</v>
-      </c>
-      <c r="L98" t="s">
-        <v>995</v>
-      </c>
-      <c r="M98">
-        <v>0.1</v>
-      </c>
-      <c r="N98" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:14">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" t="s">
-        <v>996</v>
-      </c>
-      <c r="D99" t="s">
-        <v>712</v>
-      </c>
-      <c r="E99" t="s">
-        <v>997</v>
-      </c>
-      <c r="F99" t="s">
-        <v>998</v>
-      </c>
-      <c r="G99" t="s">
-        <v>941</v>
-      </c>
-      <c r="H99" t="s">
-        <v>251</v>
-      </c>
-      <c r="I99" t="s">
-        <v>251</v>
-      </c>
-      <c r="J99" t="s">
-        <v>20</v>
-      </c>
-      <c r="K99" t="s">
-        <v>20</v>
-      </c>
-      <c r="M99">
-        <v>0.1</v>
-      </c>
-      <c r="N99" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:14">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
-        <v>999</v>
-      </c>
-      <c r="D100" t="s">
-        <v>712</v>
-      </c>
-      <c r="E100" t="s">
-        <v>450</v>
-      </c>
-      <c r="F100" t="s">
-        <v>943</v>
-      </c>
-      <c r="G100" t="s">
-        <v>860</v>
-      </c>
-      <c r="H100" t="s">
-        <v>251</v>
-      </c>
-      <c r="I100" t="s">
-        <v>251</v>
-      </c>
-      <c r="J100" t="s">
-        <v>20</v>
-      </c>
-      <c r="K100" t="s">
-        <v>20</v>
-      </c>
-      <c r="M100">
-        <v>0.1</v>
-      </c>
-      <c r="N100" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:14">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D101" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" t="s">
-        <v>441</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" t="s">
-        <v>20</v>
-      </c>
-      <c r="K101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M101">
-        <v>0.1</v>
-      </c>
-      <c r="N101" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="1:14">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D102" t="s">
-        <v>865</v>
-      </c>
-      <c r="E102" t="s">
-        <v>200</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" t="s">
-        <v>20</v>
-      </c>
-      <c r="K102" t="s">
-        <v>20</v>
-      </c>
-      <c r="L102" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M102">
-        <v>0.1</v>
-      </c>
-      <c r="N102" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:14">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D103" t="s">
-        <v>712</v>
-      </c>
-      <c r="E103" t="s">
-        <v>870</v>
-      </c>
-      <c r="F103" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G103" t="s">
-        <v>860</v>
-      </c>
-      <c r="H103" t="s">
-        <v>251</v>
-      </c>
-      <c r="I103" t="s">
-        <v>251</v>
-      </c>
-      <c r="J103" t="s">
-        <v>20</v>
-      </c>
-      <c r="K103" t="s">
-        <v>20</v>
-      </c>
-      <c r="M103">
-        <v>0.1</v>
-      </c>
-      <c r="N103" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:14">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D104" t="s">
-        <v>712</v>
-      </c>
-      <c r="E104" t="s">
-        <v>870</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G104" t="s">
-        <v>860</v>
-      </c>
-      <c r="H104" t="s">
-        <v>251</v>
-      </c>
-      <c r="I104" t="s">
-        <v>251</v>
-      </c>
-      <c r="J104" t="s">
-        <v>20</v>
-      </c>
-      <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="M104">
-        <v>0.1</v>
-      </c>
-      <c r="N104" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:14">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>19</v>
-      </c>
-      <c r="J105" t="s">
-        <v>20</v>
-      </c>
-      <c r="K105" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" t="s">
-        <v>29</v>
-      </c>
-      <c r="M105">
-        <v>0.1</v>
-      </c>
-      <c r="N105" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:14">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D106" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" t="s">
-        <v>179</v>
-      </c>
-      <c r="F106" t="s">
-        <v>993</v>
-      </c>
-      <c r="G106" t="s">
-        <v>994</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>19</v>
-      </c>
-      <c r="J106" t="s">
-        <v>20</v>
-      </c>
-      <c r="K106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M106">
-        <v>0.1</v>
-      </c>
-      <c r="N106" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:14">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D107" t="s">
-        <v>712</v>
-      </c>
-      <c r="E107" t="s">
-        <v>997</v>
-      </c>
-      <c r="F107" t="s">
-        <v>998</v>
-      </c>
-      <c r="G107" t="s">
-        <v>941</v>
-      </c>
-      <c r="H107" t="s">
-        <v>251</v>
-      </c>
-      <c r="I107" t="s">
-        <v>251</v>
-      </c>
-      <c r="J107" t="s">
-        <v>20</v>
-      </c>
-      <c r="K107" t="s">
-        <v>20</v>
-      </c>
-      <c r="M107">
-        <v>0.1</v>
-      </c>
-      <c r="N107" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:14">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D108" t="s">
-        <v>712</v>
-      </c>
-      <c r="E108" t="s">
-        <v>450</v>
-      </c>
-      <c r="F108" t="s">
-        <v>943</v>
-      </c>
-      <c r="G108" t="s">
-        <v>860</v>
-      </c>
-      <c r="H108" t="s">
-        <v>251</v>
-      </c>
-      <c r="I108" t="s">
-        <v>251</v>
-      </c>
-      <c r="J108" t="s">
-        <v>20</v>
-      </c>
-      <c r="K108" t="s">
-        <v>20</v>
-      </c>
-      <c r="M108">
-        <v>0.1</v>
-      </c>
-      <c r="N108" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:14">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D109" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" t="s">
-        <v>851</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>19</v>
-      </c>
-      <c r="J109" t="s">
-        <v>20</v>
-      </c>
-      <c r="K109" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" t="s">
-        <v>960</v>
-      </c>
-      <c r="M109">
-        <v>0.1</v>
-      </c>
-      <c r="N109" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" spans="1:14">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D110" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" t="s">
-        <v>441</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" t="s">
-        <v>19</v>
-      </c>
-      <c r="J110" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" t="s">
-        <v>20</v>
-      </c>
-      <c r="L110" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M110">
-        <v>0.1</v>
-      </c>
-      <c r="N110" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:14">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D111" t="s">
-        <v>865</v>
-      </c>
-      <c r="E111" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
-        <v>19</v>
-      </c>
-      <c r="J111" t="s">
-        <v>20</v>
-      </c>
-      <c r="K111" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M111">
-        <v>0.1</v>
-      </c>
-      <c r="N111" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" spans="1:14">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D112" t="s">
-        <v>865</v>
-      </c>
-      <c r="E112" t="s">
-        <v>866</v>
-      </c>
-      <c r="F112" t="s">
-        <v>867</v>
-      </c>
-      <c r="G112" t="s">
-        <v>868</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>19</v>
-      </c>
-      <c r="J112" t="s">
-        <v>20</v>
-      </c>
-      <c r="K112" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112">
-        <v>0.1</v>
-      </c>
-      <c r="N112" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:14">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D113" t="s">
-        <v>712</v>
-      </c>
-      <c r="E113" t="s">
-        <v>870</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G113" t="s">
-        <v>860</v>
-      </c>
-      <c r="H113" t="s">
-        <v>244</v>
-      </c>
-      <c r="I113" t="s">
-        <v>244</v>
-      </c>
-      <c r="J113" t="s">
-        <v>20</v>
-      </c>
-      <c r="K113" t="s">
-        <v>20</v>
-      </c>
-      <c r="M113">
-        <v>0.1</v>
-      </c>
-      <c r="N113" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:14">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D114" t="s">
-        <v>712</v>
-      </c>
-      <c r="E114" t="s">
-        <v>870</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G114" t="s">
-        <v>860</v>
-      </c>
-      <c r="H114" t="s">
-        <v>251</v>
-      </c>
-      <c r="I114" t="s">
-        <v>251</v>
-      </c>
-      <c r="J114" t="s">
-        <v>20</v>
-      </c>
-      <c r="K114" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" t="s">
-        <v>872</v>
-      </c>
-      <c r="M114">
-        <v>0.1</v>
-      </c>
-      <c r="N114" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:14">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D115" t="s">
-        <v>178</v>
-      </c>
-      <c r="E115" t="s">
-        <v>179</v>
-      </c>
-      <c r="F115" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" t="s">
-        <v>19</v>
-      </c>
-      <c r="J115" t="s">
-        <v>20</v>
-      </c>
-      <c r="K115" t="s">
-        <v>20</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M115">
-        <v>0.1</v>
-      </c>
-      <c r="N115" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:14">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D116" t="s">
-        <v>712</v>
-      </c>
-      <c r="E116" t="s">
-        <v>997</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G116" t="s">
-        <v>941</v>
-      </c>
-      <c r="H116" t="s">
-        <v>251</v>
-      </c>
-      <c r="I116" t="s">
-        <v>251</v>
-      </c>
-      <c r="J116" t="s">
-        <v>20</v>
-      </c>
-      <c r="K116" t="s">
-        <v>20</v>
-      </c>
-      <c r="M116">
-        <v>0.1</v>
-      </c>
-      <c r="N116" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:14">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D117" t="s">
-        <v>712</v>
-      </c>
-      <c r="E117" t="s">
-        <v>450</v>
-      </c>
-      <c r="F117" t="s">
-        <v>978</v>
-      </c>
-      <c r="G117" t="s">
-        <v>860</v>
-      </c>
-      <c r="H117" t="s">
-        <v>244</v>
-      </c>
-      <c r="I117" t="s">
-        <v>244</v>
-      </c>
-      <c r="J117" t="s">
-        <v>20</v>
-      </c>
-      <c r="K117" t="s">
-        <v>20</v>
-      </c>
-      <c r="M117">
-        <v>0.1</v>
-      </c>
-      <c r="N117" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:14">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D118" t="s">
-        <v>712</v>
-      </c>
-      <c r="E118" t="s">
-        <v>450</v>
-      </c>
-      <c r="F118" t="s">
-        <v>980</v>
-      </c>
-      <c r="G118" t="s">
-        <v>860</v>
-      </c>
-      <c r="H118" t="s">
-        <v>251</v>
-      </c>
-      <c r="I118" t="s">
-        <v>251</v>
-      </c>
-      <c r="J118" t="s">
-        <v>20</v>
-      </c>
-      <c r="K118" t="s">
-        <v>20</v>
-      </c>
-      <c r="M118">
-        <v>0.1</v>
-      </c>
-      <c r="N118" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="1:14">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D119" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" t="s">
-        <v>851</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G119" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>19</v>
-      </c>
-      <c r="J119" t="s">
-        <v>20</v>
-      </c>
-      <c r="K119" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M119">
-        <v>0.1</v>
-      </c>
-      <c r="N119" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:14">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" t="s">
-        <v>441</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>19</v>
-      </c>
-      <c r="J120" t="s">
-        <v>20</v>
-      </c>
-      <c r="K120" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M120">
-        <v>0.1</v>
-      </c>
-      <c r="N120" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="1:14">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D121" t="s">
-        <v>865</v>
-      </c>
-      <c r="E121" t="s">
-        <v>200</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>19</v>
-      </c>
-      <c r="J121" t="s">
-        <v>20</v>
-      </c>
-      <c r="K121" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M121">
-        <v>0.1</v>
-      </c>
-      <c r="N121" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:14">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D122" t="s">
-        <v>712</v>
-      </c>
-      <c r="E122" t="s">
-        <v>870</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G122" t="s">
-        <v>860</v>
-      </c>
-      <c r="H122" t="s">
-        <v>244</v>
-      </c>
-      <c r="I122" t="s">
-        <v>244</v>
-      </c>
-      <c r="J122" t="s">
-        <v>20</v>
-      </c>
-      <c r="K122" t="s">
-        <v>20</v>
-      </c>
-      <c r="M122">
-        <v>0.1</v>
-      </c>
-      <c r="N122" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="1:14">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D123" t="s">
-        <v>712</v>
-      </c>
-      <c r="E123" t="s">
-        <v>870</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G123" t="s">
-        <v>860</v>
-      </c>
-      <c r="H123" t="s">
-        <v>251</v>
-      </c>
-      <c r="I123" t="s">
-        <v>251</v>
-      </c>
-      <c r="J123" t="s">
-        <v>20</v>
-      </c>
-      <c r="K123" t="s">
-        <v>20</v>
-      </c>
-      <c r="M123">
-        <v>0.1</v>
-      </c>
-      <c r="N123" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="124" customFormat="1" spans="1:14">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" t="s">
-        <v>132</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>19</v>
-      </c>
-      <c r="J124" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s">
-        <v>29</v>
-      </c>
-      <c r="M124">
-        <v>0.1</v>
-      </c>
-      <c r="N124" t="s">
-        <v>854</v>
-      </c>
-    </row>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
+    <row r="30" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18588,27 +12576,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1054</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1055</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>1056</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1057</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1058</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="6:6">
